--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB00542D-3A72-7741-9F80-AF0A63B07056}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C580F6-79EA-114B-8B38-A6DB734083D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="27660" windowHeight="17460" activeTab="3" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="27660" windowHeight="17460" activeTab="4" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
     <sheet name="20190220" sheetId="2" r:id="rId2"/>
     <sheet name="20190227" sheetId="3" r:id="rId3"/>
     <sheet name="20190228" sheetId="4" r:id="rId4"/>
+    <sheet name="20190309" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="233">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,12 +710,513 @@
     <t>太子2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>NLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>THINGSdb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的出力结果</t>
+    </r>
+  </si>
+  <si>
+    <t>20190309版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAOnoMacBook-Pro:things_db haoyan$ tree</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>├── 0000000001</t>
+  </si>
+  <si>
+    <t>0000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   ├── Data.data</t>
+  </si>
+  <si>
+    <t>│   ├── Data_index.data</t>
+  </si>
+  <si>
+    <t>│   └── id.data</t>
+  </si>
+  <si>
+    <t>├── 0000000005</t>
+  </si>
+  <si>
+    <t>0000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   ├── GUEST</t>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000005</t>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000003.data</t>
+  </si>
+  <si>
+    <t>‘0503=思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0502=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000005.data</t>
+  </si>
+  <si>
+    <t>‘0505=交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0504=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000006.data</t>
+  </si>
+  <si>
+    <t>‘0506=（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000007.data</t>
+  </si>
+  <si>
+    <t>‘0507=（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000005000000000300000000050000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000008.data</t>
+  </si>
+  <si>
+    <t>‘0508=工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000010.data</t>
+  </si>
+  <si>
+    <t>‘0510=智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0509=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000011.data</t>
+  </si>
+  <si>
+    <t>‘0511=（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000012.data</t>
+  </si>
+  <si>
+    <t>‘0512=结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000013.data</t>
+  </si>
+  <si>
+    <t>‘0513=语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0501=自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   └── 0000000014.data</t>
+  </si>
+  <si>
+    <t>‘0514=（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   └── 0000000007</t>
+  </si>
+  <si>
+    <t>│   │       ├── 0000000001.data</t>
+  </si>
+  <si>
+    <t>‘00000000050000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │       └── 0000000002.data</t>
+  </si>
+  <si>
+    <t>‘00000000050000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   ├── WAITER</t>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000001.data</t>
+  </si>
+  <si>
+    <t>‘000000000600000000050000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000002.data</t>
+  </si>
+  <si>
+    <t>‘000000000600000000050000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000003.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000600000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000004.data</t>
+  </si>
+  <si>
+    <t>‘000000000600000000050000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000005.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000600000000050000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000006.data</t>
+  </si>
+  <si>
+    <t>‘000000000500000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000007.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000500000000050000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000008.data</t>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000009.data</t>
+  </si>
+  <si>
+    <t>‘000000000600000000050000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000010.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000600000000050000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000011.data</t>
+  </si>
+  <si>
+    <t>‘000000000500000000050000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000012.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000600000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000013.data</t>
+  </si>
+  <si>
+    <t>‘00000000050000000006000000000700000000050000000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   └── 0000000014.data</t>
+  </si>
+  <si>
+    <t>‘0000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>├── 0000000006</t>
+  </si>
+  <si>
+    <t>// 值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 1=自然 2=语言 3=人类 4=思维 5=交流 6=工具 7=是 8=智慧 9=结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000001.data</t>
+  </si>
+  <si>
+    <t>‘00000000060000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000002.data</t>
+  </si>
+  <si>
+    <t>‘00000000060000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000060000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000004.data</t>
+  </si>
+  <si>
+    <t>‘00000000060000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000060000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   ├── 0000000009.data</t>
+  </si>
+  <si>
+    <t>‘00000000060000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000060000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   │   └── 0000000013.data</t>
+  </si>
+  <si>
+    <t>‘00000000060000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000060000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000020000000005000000000400000000050000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000007000000000100000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   └── 0000000009.data</t>
+  </si>
+  <si>
+    <t>└── 0000000007</t>
+  </si>
+  <si>
+    <t>// 怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    ├── Data.data</t>
+  </si>
+  <si>
+    <t>    ├── Data_index.data</t>
+  </si>
+  <si>
+    <t>    ├── GUEST</t>
+  </si>
+  <si>
+    <t>    │   ├── 0000000005</t>
+  </si>
+  <si>
+    <t>‘0702=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    │   │   └── 0000000013.data</t>
+  </si>
+  <si>
+    <t>‘00000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    │   └── 0000000007</t>
+  </si>
+  <si>
+    <t>    │       └── 0000000002.data</t>
+  </si>
+  <si>
+    <t>‘00000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    ├── WAITER</t>
+  </si>
+  <si>
+    <t>    │   ├── 0000000001.data</t>
+  </si>
+  <si>
+    <t>‘0000000005000000000600000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    │   └── 0000000002.data</t>
+  </si>
+  <si>
+    <t>‘00000000050000000006000000000700000000050000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    └── id.data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -832,6 +1334,24 @@
       <color theme="1"/>
       <name val=".PingFang SC"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -969,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1581,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6960,7 +7489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5403643D-70EC-C840-9A75-FB88A58AD28A}">
   <dimension ref="B2:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -7191,4 +7720,719 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B84FA-5CE6-DB48-AB54-C4E57F0B93E1}">
+  <dimension ref="B2:O84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="45">
+      <c r="C2" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="D5" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="D6" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="D8" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="D9" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="D10" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="D11" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="D12" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="D14" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="D15" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="D16" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="D17" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="D18" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="D19" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="D20" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="D22" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="D23" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="D24" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="D25" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="D26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="D27" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="D28" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="D29" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="D30" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="D31" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="D32" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13">
+      <c r="D49" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" t="s">
+        <v>189</v>
+      </c>
+      <c r="M49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13">
+      <c r="D50" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" t="s">
+        <v>192</v>
+      </c>
+      <c r="M50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13">
+      <c r="D51" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>194</v>
+      </c>
+      <c r="M51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="D53" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" t="s">
+        <v>197</v>
+      </c>
+      <c r="M53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="D54" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" t="s">
+        <v>199</v>
+      </c>
+      <c r="M54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="D55" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="J55" t="s">
+        <v>192</v>
+      </c>
+      <c r="M55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="D56" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" t="s">
+        <v>202</v>
+      </c>
+      <c r="M56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13">
+      <c r="D57" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57" t="s">
+        <v>204</v>
+      </c>
+      <c r="M57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13">
+      <c r="D58" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" t="s">
+        <v>207</v>
+      </c>
+      <c r="M58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13">
+      <c r="D59" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13">
+      <c r="D60" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" t="s">
+        <v>209</v>
+      </c>
+      <c r="M60" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13">
+      <c r="D61" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="J61" t="s">
+        <v>209</v>
+      </c>
+      <c r="M61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13">
+      <c r="D62" s="33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13">
+      <c r="D63" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13">
+      <c r="D64" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11">
+      <c r="D68" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11">
+      <c r="D69" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11">
+      <c r="D70" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11">
+      <c r="D71" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11">
+      <c r="D72" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11">
+      <c r="D73" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F73" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11">
+      <c r="D74" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11">
+      <c r="D75" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11">
+      <c r="D76" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11">
+      <c r="D77" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="G77" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11">
+      <c r="D78" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11">
+      <c r="D79" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" t="s">
+        <v>221</v>
+      </c>
+      <c r="K79" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11">
+      <c r="D80" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J80" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="J82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="D84" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C580F6-79EA-114B-8B38-A6DB734083D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA50A64-27F8-3643-A601-BF32EAC85620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="27660" windowHeight="17460" activeTab="4" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="30020" windowHeight="17460" activeTab="4" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +752,6 @@
     </r>
   </si>
   <si>
-    <t>20190309版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1210,13 +1206,25 @@
   </si>
   <si>
     <t>    └── id.data</t>
+  </si>
+  <si>
+    <t>‘0501=（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0701=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190310版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1352,6 +1360,14 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1489,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1590,6 +1606,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5856,6 +5881,509 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406892</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>61649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184951</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>73980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED3089-A54D-F946-8D3B-93037BC0B277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7015824" y="17397766"/>
+          <a:ext cx="1430292" cy="604175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有问题：不是成双出现</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295921</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>24660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406893</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>61649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CD0EAB-FF13-EE49-BB30-C54810E5339B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7730970" y="16768932"/>
+          <a:ext cx="937088" cy="628834"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110970</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>73981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480873</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22DAFA4E-0D3E-314F-945D-791465F9F2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12502718" y="5770486"/>
+          <a:ext cx="2022136" cy="542524"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>有问题：不是成双出现</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110970</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{129C703D-D370-894D-8119-C8C764002C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9962718" y="5918447"/>
+          <a:ext cx="2540000" cy="184951"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>801456</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E1FCA4-E360-BE4E-8B9A-F4F6F3F947FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9888738" y="6041748"/>
+          <a:ext cx="2613980" cy="567184"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24660</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>172622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B502008-A420-0C45-BFEB-D98F321E5C81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9938058" y="6239029"/>
+          <a:ext cx="2515340" cy="813787"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>813786</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221941</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>135631</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795C9950-D689-C34A-951A-706FB76D5FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9901068" y="6362330"/>
+          <a:ext cx="2712621" cy="1245340"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>801456</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B641C3-17CB-BC4F-8EC7-2A40D5A830DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9913398" y="6362330"/>
+          <a:ext cx="3279806" cy="1652233"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>801456</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>24660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295922</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCE457D-0B3C-954D-96DB-9351A2A22206}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11540971" y="6313010"/>
+          <a:ext cx="1972815" cy="2096116"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -7724,11 +8252,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B84FA-5CE6-DB48-AB54-C4E57F0B93E1}">
-  <dimension ref="B2:O84"/>
+  <dimension ref="B2:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -7736,703 +8262,782 @@
       <c r="C2" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2" s="5"/>
+      <c r="N2" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="34"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="D5" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="D6" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="D8" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="D9" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="D10" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="D11" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="D12" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="D14" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="D15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
         <v>117</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>118</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>119</v>
-      </c>
-      <c r="M15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="D16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
         <v>121</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>122</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>123</v>
       </c>
-      <c r="M16" t="s">
+    </row>
+    <row r="17" spans="2:17">
+      <c r="D17" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="D17" s="33" t="s">
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>126</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="D18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="M17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="D18" s="33" t="s">
+      <c r="H18" t="s">
         <v>128</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>129</v>
       </c>
-      <c r="J18" t="s">
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="D19" s="33" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="D19" s="33" t="s">
+      <c r="H19" t="s">
         <v>131</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>132</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="D20" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="M19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="D20" s="33" t="s">
+      <c r="H20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>135</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
         <v>136</v>
       </c>
-      <c r="M20" t="s">
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="32" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="H21" t="s">
         <v>139</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>140</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="D22" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="M21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="D22" s="33" t="s">
+      <c r="H22" t="s">
         <v>142</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>143</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="D23" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="D23" s="33" t="s">
+      <c r="H23" t="s">
         <v>145</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>146</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>147</v>
       </c>
-      <c r="M23" t="s">
+    </row>
+    <row r="24" spans="2:17">
+      <c r="D24" s="33" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="D24" s="33" t="s">
+      <c r="H24" t="s">
         <v>149</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>150</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="D25" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="M24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="D25" s="33" t="s">
+    </row>
+    <row r="26" spans="2:17">
+      <c r="D26" s="33" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="D26" s="33" t="s">
+      <c r="J26" t="s">
         <v>153</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="D27" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="M26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="D27" s="33" t="s">
+      <c r="J27" t="s">
         <v>155</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="D28" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="D28" s="33" t="s">
+    </row>
+    <row r="29" spans="2:17">
+      <c r="D29" s="33" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="D29" s="33" t="s">
+      <c r="J29" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="D30" s="33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="D30" s="33" t="s">
+      <c r="J30" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="D31" s="33" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="D31" s="33" t="s">
+      <c r="J31" t="s">
         <v>162</v>
       </c>
-      <c r="J31" t="s">
+    </row>
+    <row r="32" spans="2:17">
+      <c r="D32" s="33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="D32" s="33" t="s">
+      <c r="J32" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="4:14">
+      <c r="D33" s="33" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="33" spans="4:10">
-      <c r="D33" s="33" t="s">
+      <c r="J33" t="s">
         <v>166</v>
       </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" spans="4:14">
+      <c r="D34" s="33" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="D34" s="33" t="s">
+      <c r="J34" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="4:14">
+      <c r="D35" s="33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" s="33" t="s">
+      <c r="J35" t="s">
         <v>170</v>
       </c>
-      <c r="J35" t="s">
+    </row>
+    <row r="36" spans="4:14">
+      <c r="D36" s="33" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" s="33" t="s">
+      <c r="J36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14">
+      <c r="D37" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="J36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="D37" s="33" t="s">
+      <c r="J37" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+    </row>
+    <row r="38" spans="4:14">
+      <c r="D38" s="33" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="D38" s="33" t="s">
+      <c r="J38" t="s">
         <v>175</v>
       </c>
-      <c r="J38" t="s">
+    </row>
+    <row r="39" spans="4:14">
+      <c r="D39" s="33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="39" spans="4:10">
-      <c r="D39" s="33" t="s">
+      <c r="J39" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="4:14">
+      <c r="D40" s="33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="4:10">
-      <c r="D40" s="33" t="s">
+      <c r="J40" t="s">
         <v>179</v>
       </c>
-      <c r="J40" t="s">
+    </row>
+    <row r="41" spans="4:14">
+      <c r="D41" s="33" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="4:10">
-      <c r="D41" s="33" t="s">
+      <c r="J41" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+    </row>
+    <row r="42" spans="4:14">
+      <c r="D42" s="33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="42" spans="4:10">
-      <c r="D42" s="33" t="s">
+      <c r="J42" t="s">
         <v>183</v>
       </c>
-      <c r="J42" t="s">
+    </row>
+    <row r="43" spans="4:14">
+      <c r="D43" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14">
+      <c r="D44" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="43" spans="4:10">
-      <c r="D43" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10">
-      <c r="D44" s="33" t="s">
+      <c r="F44" t="s">
         <v>185</v>
       </c>
-      <c r="F44" t="s">
+    </row>
+    <row r="45" spans="4:14">
+      <c r="D45" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="4:10">
-      <c r="D45" s="33" t="s">
+    <row r="46" spans="4:14">
+      <c r="D46" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="J45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10">
-      <c r="D46" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10">
+    </row>
+    <row r="47" spans="4:14">
       <c r="D47" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14">
+      <c r="D48" s="33" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10">
-      <c r="D48" s="33" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="49" spans="4:13">
       <c r="D49" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49" t="s">
         <v>188</v>
       </c>
-      <c r="J49" t="s">
+      <c r="M49" t="s">
         <v>189</v>
-      </c>
-      <c r="M49" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="50" spans="4:13">
       <c r="D50" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J50" t="s">
         <v>191</v>
       </c>
-      <c r="J50" t="s">
+      <c r="M50" t="s">
         <v>192</v>
-      </c>
-      <c r="M50" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="51" spans="4:13">
       <c r="D51" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M51" t="s">
         <v>194</v>
-      </c>
-      <c r="M51" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="52" spans="4:13">
       <c r="D52" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J52" t="s">
+        <v>191</v>
+      </c>
+      <c r="M52" t="s">
         <v>192</v>
-      </c>
-      <c r="M52" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="53" spans="4:13">
       <c r="D53" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J53" t="s">
+        <v>196</v>
+      </c>
+      <c r="M53" t="s">
         <v>197</v>
-      </c>
-      <c r="M53" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="54" spans="4:13">
       <c r="D54" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
+        <v>198</v>
+      </c>
+      <c r="M54" t="s">
         <v>199</v>
-      </c>
-      <c r="M54" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="55" spans="4:13">
       <c r="D55" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M55" t="s">
         <v>192</v>
-      </c>
-      <c r="M55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="4:13">
       <c r="D56" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
+        <v>201</v>
+      </c>
+      <c r="M56" t="s">
         <v>202</v>
-      </c>
-      <c r="M56" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="57" spans="4:13">
       <c r="D57" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J57" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" t="s">
         <v>204</v>
-      </c>
-      <c r="M57" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="58" spans="4:13">
       <c r="D58" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J58" t="s">
         <v>206</v>
       </c>
-      <c r="J58" t="s">
+      <c r="M58" t="s">
         <v>207</v>
-      </c>
-      <c r="M58" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="59" spans="4:13">
       <c r="D59" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="4:13">
       <c r="D60" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J60" t="s">
+        <v>208</v>
+      </c>
+      <c r="M60" t="s">
         <v>209</v>
-      </c>
-      <c r="M60" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="61" spans="4:13">
       <c r="D61" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J61" t="s">
+        <v>208</v>
+      </c>
+      <c r="M61" t="s">
         <v>209</v>
-      </c>
-      <c r="M61" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="62" spans="4:13">
       <c r="D62" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="4:13">
       <c r="D63" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J63" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="M63" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="4:13">
       <c r="D64" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J64" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11">
+        <v>150</v>
+      </c>
+      <c r="M64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="4:20">
       <c r="D65" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J65" t="s">
+        <v>210</v>
+      </c>
+      <c r="P65" t="s">
+        <v>119</v>
+      </c>
+      <c r="R65" t="s">
+        <v>123</v>
+      </c>
+      <c r="T65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="4:20">
+      <c r="D66" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="66" spans="4:11">
-      <c r="D66" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="4:20">
+      <c r="D67" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="4:20">
+      <c r="D68" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J68" t="s">
+        <v>155</v>
+      </c>
+      <c r="M68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="4:20">
+      <c r="D69" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J69" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="67" spans="4:11">
-      <c r="D67" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="J67" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="4:11">
-      <c r="D68" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J68" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11">
-      <c r="D69" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="O69" t="s">
+        <v>233</v>
+      </c>
+      <c r="P69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="4:20">
+      <c r="D70" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J70" t="s">
+        <v>140</v>
+      </c>
+      <c r="M70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="4:20">
+      <c r="D71" s="33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="70" spans="4:11">
-      <c r="D70" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="J70" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="4:11">
-      <c r="D71" s="33" t="s">
+      <c r="J71" t="s">
+        <v>153</v>
+      </c>
+      <c r="M71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="4:20">
+      <c r="D72" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="4:20">
+      <c r="D73" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="J71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="4:11">
-      <c r="D72" s="33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11">
-      <c r="D73" s="33" t="s">
+      <c r="F73" t="s">
         <v>215</v>
       </c>
-      <c r="F73" t="s">
+    </row>
+    <row r="74" spans="4:20">
+      <c r="D74" s="33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="4:11">
-      <c r="D74" s="33" t="s">
+    <row r="75" spans="4:20">
+      <c r="D75" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="4:11">
-      <c r="D75" s="33" t="s">
+    <row r="76" spans="4:20">
+      <c r="D76" s="33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="4:11">
-      <c r="D76" s="33" t="s">
+    <row r="77" spans="4:20">
+      <c r="D77" s="33" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="4:11">
-      <c r="D77" s="33" t="s">
+      <c r="G77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="4:20">
+      <c r="D78" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J78" t="s">
+        <v>222</v>
+      </c>
+      <c r="M78" t="s">
         <v>220</v>
       </c>
-      <c r="G77" t="s">
-        <v>146</v>
-      </c>
-      <c r="K77" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="4:11">
-      <c r="D78" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="J78" t="s">
+    </row>
+    <row r="79" spans="4:20">
+      <c r="D79" s="33" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="79" spans="4:11">
-      <c r="D79" s="33" t="s">
+      <c r="G79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="4:20">
+      <c r="D80" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="G79" t="s">
-        <v>221</v>
-      </c>
-      <c r="K79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="4:11">
-      <c r="D80" s="33" t="s">
+      <c r="J80" t="s">
         <v>225</v>
       </c>
-      <c r="J80" t="s">
+      <c r="M80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17">
+      <c r="D81" s="33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="4:10">
-      <c r="D81" s="33" t="s">
+    <row r="82" spans="4:17">
+      <c r="D82" s="33" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="4:10">
-      <c r="D82" s="33" t="s">
+      <c r="J82" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17">
+      <c r="D83" s="33" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="83" spans="4:10">
-      <c r="D83" s="33" t="s">
+      <c r="J83" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17">
+      <c r="D84" s="33" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10">
-      <c r="D84" s="33" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA50A64-27F8-3643-A601-BF32EAC85620}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9AD05-DC46-FC4D-9068-F3E7751804B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="30020" windowHeight="17460" activeTab="4" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="5" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="20190227" sheetId="3" r:id="rId3"/>
     <sheet name="20190228" sheetId="4" r:id="rId4"/>
     <sheet name="20190309" sheetId="5" r:id="rId5"/>
+    <sheet name="20190311" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="262">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,12 +1220,268 @@
     <t>20190310版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>因为没有统一。因为对于Waiter的读写不只是在【业者】Class；在【顾客】也经常出现；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">所以需要统一代码的入出口。 2019-3-11 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾客CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_id顧客数据一覧表記録(数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>主体数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>顧客数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>业者CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_業者詞条id一覧表記録(数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>主体数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>業者数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">取得W数据DTOList_by詞条IDand数据采番ID(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>s本詞条id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>s本数据id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">取得業者数据DTOList_by詞条IDand数据采番ID(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>s詞条id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>s数据id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      |--------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000008000000000600000000070000000007000000000100000000050000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000120000000006000000000700000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘00000000050000000001000000000600000000020000000007000000000200000000050000000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000110000000006000000000900000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000005000000001000000000050000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000090000000006000000000800000000050000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000006000000000300000000050000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000070000000006000000000600000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000030000000005000000000600000000050000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000005000000000500000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000040000000006000000000500000000050000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000006000000000300000000050000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘000000000500000000020000000006000000000400000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000006000000000300000000050000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0000000006000000000100000000050000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完的处理结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190311版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1341,7 +1598,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val=".PingFang SC"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="36"/>
@@ -1368,6 +1625,24 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1505,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1615,6 +1890,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8252,9 +8530,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B84FA-5CE6-DB48-AB54-C4E57F0B93E1}">
-  <dimension ref="B2:T84"/>
+  <dimension ref="B2:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -8989,12 +9269,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="4:17">
+    <row r="81" spans="4:19">
       <c r="D81" s="33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="4:17">
+    <row r="82" spans="4:19">
       <c r="D82" s="33" t="s">
         <v>227</v>
       </c>
@@ -9012,7 +9292,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="4:17">
+    <row r="83" spans="4:19">
       <c r="D83" s="33" t="s">
         <v>229</v>
       </c>
@@ -9030,9 +9310,79 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="4:17">
+    <row r="84" spans="4:19">
       <c r="D84" s="33" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="4:19">
+      <c r="J91" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="4:19">
+      <c r="J92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="4:19">
+      <c r="J94" t="s">
+        <v>237</v>
+      </c>
+      <c r="R94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="4:19">
+      <c r="J95" t="s">
+        <v>243</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="R95" t="s">
+        <v>243</v>
+      </c>
+      <c r="S95" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="4:19">
+      <c r="J96" t="s">
+        <v>244</v>
+      </c>
+      <c r="R96" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="97" spans="10:19">
+      <c r="J97" t="s">
+        <v>244</v>
+      </c>
+      <c r="R97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="10:19">
+      <c r="J98" t="s">
+        <v>244</v>
+      </c>
+      <c r="R98" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="99" spans="10:19">
+      <c r="J99" t="s">
+        <v>243</v>
+      </c>
+      <c r="K99" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="R99" t="s">
+        <v>243</v>
+      </c>
+      <c r="S99" s="37" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9040,4 +9390,796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
+  <dimension ref="C2:U86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="3:15" ht="45">
+      <c r="C2" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="C19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>135</v>
+      </c>
+      <c r="O22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="C24" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="C28" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J28" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+      <c r="O29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="C32" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="J47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13">
+      <c r="C49" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13">
+      <c r="C50" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13">
+      <c r="C51" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
+        <v>188</v>
+      </c>
+      <c r="M51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="J52" t="s">
+        <v>191</v>
+      </c>
+      <c r="M52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" t="s">
+        <v>193</v>
+      </c>
+      <c r="M53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" t="s">
+        <v>191</v>
+      </c>
+      <c r="M54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" t="s">
+        <v>196</v>
+      </c>
+      <c r="M55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" t="s">
+        <v>198</v>
+      </c>
+      <c r="M56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" t="s">
+        <v>191</v>
+      </c>
+      <c r="M57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" t="s">
+        <v>201</v>
+      </c>
+      <c r="M58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J59" t="s">
+        <v>203</v>
+      </c>
+      <c r="M59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" t="s">
+        <v>206</v>
+      </c>
+      <c r="M60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" t="s">
+        <v>208</v>
+      </c>
+      <c r="M63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20">
+      <c r="C65" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="J65" t="s">
+        <v>146</v>
+      </c>
+      <c r="P65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20">
+      <c r="C66" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" t="s">
+        <v>150</v>
+      </c>
+      <c r="P66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="3:20">
+      <c r="C67" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="J67" t="s">
+        <v>210</v>
+      </c>
+      <c r="P67" t="s">
+        <v>119</v>
+      </c>
+      <c r="R67" t="s">
+        <v>123</v>
+      </c>
+      <c r="T67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20">
+      <c r="C68" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="J68" t="s">
+        <v>211</v>
+      </c>
+      <c r="P68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20">
+      <c r="C69" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J69" t="s">
+        <v>126</v>
+      </c>
+      <c r="P69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="3:20">
+      <c r="C70" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J70" t="s">
+        <v>155</v>
+      </c>
+      <c r="P70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20">
+      <c r="C71" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J71" t="s">
+        <v>212</v>
+      </c>
+      <c r="P71" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="3:20">
+      <c r="C72" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J72" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="3:20">
+      <c r="C73" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J73" t="s">
+        <v>153</v>
+      </c>
+      <c r="P73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="3:20">
+      <c r="C74" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20">
+      <c r="C75" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="3:20">
+      <c r="C76" s="33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="3:20">
+      <c r="C77" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="3:20">
+      <c r="C78" s="33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="3:20">
+      <c r="C79" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="3:20">
+      <c r="C80" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G80" t="s">
+        <v>145</v>
+      </c>
+      <c r="J80" t="s">
+        <v>222</v>
+      </c>
+      <c r="M80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21">
+      <c r="C81" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21">
+      <c r="C82" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G82" t="s">
+        <v>220</v>
+      </c>
+      <c r="J82" t="s">
+        <v>225</v>
+      </c>
+      <c r="M82" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21">
+      <c r="C83" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21">
+      <c r="C84" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="J84" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="S84" t="s">
+        <v>125</v>
+      </c>
+      <c r="U84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21">
+      <c r="C85" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J85" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="S85" t="s">
+        <v>220</v>
+      </c>
+      <c r="U85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21">
+      <c r="C86" s="33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B9AD05-DC46-FC4D-9068-F3E7751804B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D0F33-7831-204A-BF50-4228B2E39F78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="5" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1425,55 +1425,378 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘0000000005000000001000000000050000000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘000000000500000000090000000006000000000800000000050000000011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘0000000006000000000300000000050000000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘000000000500000000070000000006000000000600000000070000000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘000000000500000000030000000005000000000600000000050000000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘0000000005000000000500000000050000000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘000000000500000000040000000006000000000500000000050000000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘0000000006000000000300000000050000000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘000000000500000000020000000006000000000400000000050000000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘0000000006000000000300000000050000000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘0000000006000000000100000000050000000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改完的处理结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20190311版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0601=自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0603=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0604=思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0605=交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0606=工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0608=智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0609=结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0602=语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0607=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁为你服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你为谁服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘05=什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘06=值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘07=怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000002</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000007</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000005</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000004</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000007</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000008</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000001</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000013</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000003</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000060000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000010</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000012</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是】修饰了工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【人类】修饰智慧的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【智慧】修饰它的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是】修饰了【结晶】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类】是修饰思维的，所以人类为思维服务，但是思维不必为人类服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然】是修饰语言的，所以自然为语言服务，但是语言不必为自然服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要先保证数据伦理的正确性，再考虑其他扩展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里不应该有值了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为【值】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身就是为其他人服务的。</t>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000000006000000000600000000070000000002</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1481,7 +1804,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1644,6 +1967,46 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1780,7 +2143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,6 +2256,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9394,77 +9763,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
-  <dimension ref="C2:U86"/>
+  <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="3:15" ht="45">
+    <row r="2" spans="1:15" ht="42">
       <c r="C2" s="31" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="O2" s="34"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="1:15">
       <c r="C6" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="1:15">
       <c r="C7" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="1:15">
       <c r="C8" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="1:15">
       <c r="C9" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="1:15">
       <c r="C10" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="1:15">
       <c r="C11" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="1:15">
       <c r="C12" s="33" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="3:15">
+      <c r="E12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="C13" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="1:15">
       <c r="C14" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="3:15">
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
       <c r="C15" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="3:15">
+    <row r="16" spans="1:15">
       <c r="C16" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="3:17">
+    <row r="17" spans="1:23">
       <c r="C17" s="33" t="s">
         <v>116</v>
       </c>
@@ -9478,7 +9855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="3:17">
+    <row r="18" spans="1:23">
       <c r="C18" s="33" t="s">
         <v>120</v>
       </c>
@@ -9492,7 +9869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="1:23">
       <c r="C19" s="33" t="s">
         <v>124</v>
       </c>
@@ -9506,7 +9883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="1:23">
       <c r="C20" s="33" t="s">
         <v>127</v>
       </c>
@@ -9523,7 +9900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="1:23">
       <c r="C21" s="33" t="s">
         <v>130</v>
       </c>
@@ -9537,7 +9914,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="1:23">
       <c r="C22" s="33" t="s">
         <v>133</v>
       </c>
@@ -9551,7 +9928,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="1:23">
       <c r="C23" s="33" t="s">
         <v>138</v>
       </c>
@@ -9565,7 +9942,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="1:23">
       <c r="C24" s="33" t="s">
         <v>141</v>
       </c>
@@ -9579,7 +9956,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="1:23">
       <c r="C25" s="33" t="s">
         <v>144</v>
       </c>
@@ -9593,7 +9970,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="1:23">
       <c r="C26" s="33" t="s">
         <v>148</v>
       </c>
@@ -9607,12 +9984,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="1:23">
       <c r="C27" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="3:17">
+    <row r="28" spans="1:23">
       <c r="C28" s="33" t="s">
         <v>152</v>
       </c>
@@ -9623,7 +10000,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="3:17">
+    <row r="29" spans="1:23">
       <c r="C29" s="33" t="s">
         <v>154</v>
       </c>
@@ -9634,127 +10011,265 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="3:17">
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
       <c r="C30" s="33" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="3:17">
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="C31" s="33" t="s">
         <v>157</v>
       </c>
+      <c r="G31" t="s">
+        <v>147</v>
+      </c>
       <c r="J31" s="36" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="3:17">
+      <c r="Q31" t="s">
+        <v>252</v>
+      </c>
+      <c r="S31" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="C32" s="33" t="s">
         <v>159</v>
       </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
       <c r="J32" s="36" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="3:15">
+      <c r="Q32" t="s">
+        <v>253</v>
+      </c>
+      <c r="S32" t="s">
+        <v>117</v>
+      </c>
+      <c r="W32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25">
       <c r="C33" s="33" t="s">
         <v>161</v>
       </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
       <c r="J33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15">
+        <v>269</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>119</v>
+      </c>
+      <c r="S33" t="s">
+        <v>254</v>
+      </c>
+      <c r="U33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25">
       <c r="C34" s="33" t="s">
         <v>163</v>
       </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
       <c r="J34" s="36" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="3:15">
+      <c r="Q34" t="s">
+        <v>253</v>
+      </c>
+      <c r="S34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25">
       <c r="C35" s="33" t="s">
         <v>165</v>
       </c>
+      <c r="G35" t="s">
+        <v>121</v>
+      </c>
       <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="36" spans="3:15">
+      <c r="U35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25">
       <c r="C36" s="33" t="s">
         <v>167</v>
       </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
       <c r="J36" s="36" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-    </row>
-    <row r="37" spans="3:15">
+      <c r="Q36" t="s">
+        <v>121</v>
+      </c>
+      <c r="S36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25">
       <c r="C37" s="33" t="s">
         <v>169</v>
       </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
       <c r="J37" s="36" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
-    </row>
-    <row r="38" spans="3:15">
+      <c r="Q37" t="s">
+        <v>117</v>
+      </c>
+      <c r="S37" t="s">
+        <v>125</v>
+      </c>
+      <c r="U37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25">
       <c r="C38" s="33" t="s">
         <v>171</v>
       </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
       <c r="J38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15">
+        <v>288</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>128</v>
+      </c>
+      <c r="S38" t="s">
+        <v>256</v>
+      </c>
+      <c r="U38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25">
       <c r="C39" s="33" t="s">
         <v>172</v>
       </c>
+      <c r="G39" t="s">
+        <v>136</v>
+      </c>
       <c r="J39" s="36" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
-    </row>
-    <row r="40" spans="3:15">
+      <c r="Q39" t="s">
+        <v>253</v>
+      </c>
+      <c r="S39" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25">
       <c r="C40" s="33" t="s">
         <v>174</v>
       </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
       <c r="J40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15">
+        <v>249</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>136</v>
+      </c>
+      <c r="S40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25">
       <c r="C41" s="33" t="s">
         <v>176</v>
       </c>
+      <c r="G41" t="s">
+        <v>139</v>
+      </c>
       <c r="J41" s="36" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
-    </row>
-    <row r="42" spans="3:15">
+      <c r="Q41" t="s">
+        <v>134</v>
+      </c>
+      <c r="S41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25">
       <c r="C42" s="33" t="s">
         <v>178</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
       </c>
       <c r="J42" s="36" t="s">
         <v>248</v>
@@ -9764,10 +10279,25 @@
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
       <c r="O42" s="36"/>
-    </row>
-    <row r="43" spans="3:15">
+      <c r="S42" t="s">
+        <v>139</v>
+      </c>
+      <c r="U42" t="s">
+        <v>258</v>
+      </c>
+      <c r="W42" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25">
       <c r="C43" s="33" t="s">
         <v>180</v>
+      </c>
+      <c r="G43" t="s">
+        <v>145</v>
       </c>
       <c r="J43" s="36" t="s">
         <v>247</v>
@@ -9777,26 +10307,47 @@
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
       <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="3:15">
+      <c r="R43" t="s">
+        <v>147</v>
+      </c>
+      <c r="T43" t="s">
+        <v>259</v>
+      </c>
+      <c r="V43" t="s">
+        <v>220</v>
+      </c>
+      <c r="X43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25">
       <c r="C44" s="33" t="s">
         <v>182</v>
       </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
       <c r="J44" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="3:15">
+      <c r="Q44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25">
       <c r="C45" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:25">
       <c r="C46" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="47" spans="3:15">
+      <c r="E46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25">
       <c r="C47" s="33" t="s">
         <v>109</v>
       </c>
@@ -9804,22 +10355,25 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:25">
       <c r="C48" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="3:13">
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
       <c r="C49" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="3:13">
+    <row r="50" spans="1:15">
       <c r="C50" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="3:13">
+    <row r="51" spans="1:15">
       <c r="C51" s="33" t="s">
         <v>187</v>
       </c>
@@ -9827,10 +10381,13 @@
         <v>188</v>
       </c>
       <c r="M51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13">
+        <v>252</v>
+      </c>
+      <c r="O51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="C52" s="33" t="s">
         <v>190</v>
       </c>
@@ -9838,10 +10395,13 @@
         <v>191</v>
       </c>
       <c r="M52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
+        <v>253</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="C53" s="33" t="s">
         <v>116</v>
       </c>
@@ -9849,10 +10409,13 @@
         <v>193</v>
       </c>
       <c r="M53" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13">
+        <v>254</v>
+      </c>
+      <c r="O53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="C54" s="33" t="s">
         <v>195</v>
       </c>
@@ -9860,10 +10423,13 @@
         <v>191</v>
       </c>
       <c r="M54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13">
+        <v>253</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="C55" s="33" t="s">
         <v>120</v>
       </c>
@@ -9871,10 +10437,13 @@
         <v>196</v>
       </c>
       <c r="M55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="3:13">
+        <v>255</v>
+      </c>
+      <c r="O55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="C56" s="33" t="s">
         <v>130</v>
       </c>
@@ -9882,10 +10451,13 @@
         <v>198</v>
       </c>
       <c r="M56" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13">
+        <v>256</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="C57" s="33" t="s">
         <v>200</v>
       </c>
@@ -9893,10 +10465,13 @@
         <v>191</v>
       </c>
       <c r="M57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13">
+        <v>253</v>
+      </c>
+      <c r="O57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="C58" s="33" t="s">
         <v>133</v>
       </c>
@@ -9904,10 +10479,13 @@
         <v>201</v>
       </c>
       <c r="M58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13">
+        <v>257</v>
+      </c>
+      <c r="O58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="C59" s="33" t="s">
         <v>141</v>
       </c>
@@ -9915,10 +10493,13 @@
         <v>203</v>
       </c>
       <c r="M59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13">
+        <v>258</v>
+      </c>
+      <c r="O59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="C60" s="33" t="s">
         <v>205</v>
       </c>
@@ -9926,15 +10507,18 @@
         <v>206</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13">
+        <v>259</v>
+      </c>
+      <c r="O60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="C61" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="3:13">
+    <row r="62" spans="1:15">
       <c r="C62" s="33" t="s">
         <v>152</v>
       </c>
@@ -9942,10 +10526,13 @@
         <v>208</v>
       </c>
       <c r="M62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="3:13">
+        <v>260</v>
+      </c>
+      <c r="O62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="C63" s="33" t="s">
         <v>154</v>
       </c>
@@ -9953,41 +10540,56 @@
         <v>208</v>
       </c>
       <c r="M63" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="3:13">
+        <v>260</v>
+      </c>
+      <c r="O63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>261</v>
+      </c>
       <c r="C64" s="33" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="3:20">
+    <row r="65" spans="1:20">
       <c r="C65" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="J65" t="s">
+      <c r="G65" t="s">
+        <v>285</v>
+      </c>
+      <c r="J65" s="38" t="s">
         <v>146</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="3:20">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="C66" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="J66" t="s">
+      <c r="G66" t="s">
+        <v>286</v>
+      </c>
+      <c r="J66" s="39" t="s">
         <v>150</v>
       </c>
       <c r="P66" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="3:20">
+    <row r="67" spans="1:20">
       <c r="C67" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="J67" t="s">
+      <c r="G67" t="s">
+        <v>287</v>
+      </c>
+      <c r="J67" s="39" t="s">
         <v>210</v>
       </c>
       <c r="P67" t="s">
@@ -10000,106 +10602,112 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="3:20">
+    <row r="68" spans="1:20">
       <c r="C68" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="39" t="s">
         <v>211</v>
       </c>
       <c r="P68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="3:20">
+    <row r="69" spans="1:20">
       <c r="C69" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="39" t="s">
         <v>126</v>
       </c>
       <c r="P69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="3:20">
+    <row r="70" spans="1:20">
       <c r="C70" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="39" t="s">
         <v>155</v>
       </c>
       <c r="P70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="3:20">
+    <row r="71" spans="1:20">
       <c r="C71" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="39" t="s">
         <v>212</v>
       </c>
       <c r="P71" t="s">
         <v>233</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="3:20">
+    <row r="72" spans="1:20">
       <c r="C72" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="39" t="s">
         <v>140</v>
       </c>
       <c r="P72" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="3:20">
+    <row r="73" spans="1:20">
       <c r="C73" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="39" t="s">
         <v>153</v>
       </c>
       <c r="P73" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="3:20">
+    <row r="74" spans="1:20">
       <c r="C74" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="3:20">
+    <row r="75" spans="1:20">
       <c r="C75" s="33" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="76" spans="3:20">
+      <c r="E75" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="C76" s="33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="3:20">
+    <row r="77" spans="1:20">
       <c r="C77" s="33" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="3:20">
+    <row r="78" spans="1:20">
       <c r="C78" s="33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="3:20">
+    <row r="79" spans="1:20">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
       <c r="C79" s="33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="3:20">
+    <row r="80" spans="1:20">
       <c r="C80" s="33" t="s">
         <v>221</v>
       </c>
@@ -10113,12 +10721,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="81" spans="3:21">
+    <row r="81" spans="1:25">
       <c r="C81" s="33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="3:21">
+    <row r="82" spans="1:25">
       <c r="C82" s="33" t="s">
         <v>224</v>
       </c>
@@ -10132,14 +10740,29 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="3:21">
+    <row r="83" spans="1:25">
+      <c r="A83" t="s">
+        <v>261</v>
+      </c>
       <c r="C83" s="33" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="84" spans="3:21">
+      <c r="S83" t="s">
+        <v>266</v>
+      </c>
+      <c r="U83" t="s">
+        <v>267</v>
+      </c>
+      <c r="W83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="C84" s="33" t="s">
         <v>227</v>
+      </c>
+      <c r="G84" t="s">
+        <v>233</v>
       </c>
       <c r="J84" s="36" t="s">
         <v>246</v>
@@ -10149,15 +10772,21 @@
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
       <c r="S84" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="U84" t="s">
+        <v>260</v>
+      </c>
+      <c r="W84" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="85" spans="3:21">
+    <row r="85" spans="1:25">
       <c r="C85" s="33" t="s">
         <v>229</v>
+      </c>
+      <c r="G85" t="s">
+        <v>220</v>
       </c>
       <c r="J85" s="36" t="s">
         <v>245</v>
@@ -10167,13 +10796,19 @@
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
       <c r="S85" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="U85" t="s">
+        <v>260</v>
+      </c>
+      <c r="W85" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="86" spans="3:21">
+    <row r="86" spans="1:25">
       <c r="C86" s="33" t="s">
         <v>231</v>
       </c>

--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D0F33-7831-204A-BF50-4228B2E39F78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFDEE7A-2B4B-3F4A-9328-2716FD900CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="5" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="4800" yWindow="1940" windowWidth="28800" windowHeight="15940" activeTab="6" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="20190228" sheetId="4" r:id="rId4"/>
     <sheet name="20190309" sheetId="5" r:id="rId5"/>
     <sheet name="20190311" sheetId="6" r:id="rId6"/>
+    <sheet name="20190313" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="302">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,6 +1798,427 @@
       </rPr>
       <t>0000000006000000000600000000070000000002</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加記録_by対象数据and已処理数据(対象数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>対象数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>追加記録_by対象数据and已処理数据(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>対象数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>追加直接記録_by処理対象DTO</t>
+  </si>
+  <si>
+    <r>
+      <t>追加直接記録_by処理対象DTO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>処理対象dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加処理_単条数据(対象数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>処理対象dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_by数据_Map(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>追加処理对象map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">処理対象類型_Map(List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>local已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Entry&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>entry今</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_by数据(Map&lt;String,Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>追加処理对象map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为主词条追加W词条关系信息(Map&lt;String, String&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>主詞条信息Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;Map&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>w词条词条List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加詞条信息_处理主词条(Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>詞条信息map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;Map&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>w词条词条List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加詞条信息map(Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>詞条信息map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>20190313版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查为何会在W中出现顾客信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9765,8 +10187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
   <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10817,4 +11239,90 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7C1E8-7790-8046-8CE4-A4E029D6B35A}">
+  <dimension ref="B2:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="42">
+      <c r="C2" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="D9" s="37"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="37"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" s="37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="D13" s="37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="E14" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="F15" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="G16" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="H17" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="I18" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="J19" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="D25" s="37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="E26" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFDEE7A-2B4B-3F4A-9328-2716FD900CDE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E608F-1BA1-5744-9DE0-ACD704D9881C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1940" windowWidth="28800" windowHeight="15940" activeTab="6" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="307">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1506,7 +1506,7 @@
   </si>
   <si>
     <r>
-      <t>‘00000000050000000002</t>
+      <t>‘</t>
     </r>
     <r>
       <rPr>
@@ -1516,7 +1516,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>00000000060000000004</t>
+      <t>00000000060000000003</t>
     </r>
     <r>
       <rPr>
@@ -1527,13 +1527,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000007</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘</t>
+      <t>00000000050000000005</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000004</t>
     </r>
     <r>
       <rPr>
@@ -1543,7 +1543,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>00000000060000000003</t>
+      <t>00000000060000000005</t>
     </r>
     <r>
       <rPr>
@@ -1554,13 +1554,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000005</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘00000000050000000004</t>
+      <t>00000000050000000006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
     </r>
     <r>
       <rPr>
@@ -1570,7 +1570,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>00000000060000000005</t>
+      <t>00000000050000000005</t>
     </r>
     <r>
       <rPr>
@@ -1581,13 +1581,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000006</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘</t>
+      <t>00000000050000000007</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000003</t>
     </r>
     <r>
       <rPr>
@@ -1597,7 +1597,7 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>00000000050000000005</t>
+      <t>00000000050000000006</t>
     </r>
     <r>
       <rPr>
@@ -1608,13 +1608,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000007</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘00000000050000000003</t>
+      <t>00000000050000000008</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000001</t>
     </r>
     <r>
       <rPr>
@@ -1624,7 +1633,523 @@
         <rFont val="等线 (正文)"/>
         <charset val="134"/>
       </rPr>
-      <t>00000000050000000006</t>
+      <t>00000000050000000013</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000003</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000060000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000050000000010</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是】修饰了工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【人类】修饰智慧的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【智慧】修饰它的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【是】修饰了【结晶】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类】是修饰思维的，所以人类为思维服务，但是思维不必为人类服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然】是修饰语言的，所以自然为语言服务，但是语言不必为自然服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要先保证数据伦理的正确性，再考虑其他扩展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里不应该有值了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为【值】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本身就是为其他人服务的。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加記録_by対象数据and已処理数据(対象数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>対象数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>追加記録_by対象数据and已処理数据(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>対象数据dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>追加直接記録_by処理対象DTO</t>
+  </si>
+  <si>
+    <r>
+      <t>追加直接記録_by処理対象DTO(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>処理対象dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加処理_単条数据(対象数据DTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>処理対象dto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_by数据_Map(String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>追加処理对象map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">処理対象類型_Map(List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>local已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Entry&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>entry今</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加_by数据(Map&lt;String,Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>追加処理对象map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>已処理数据List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">为主词条追加W词条关系信息(Map&lt;String, String&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>主詞条信息Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;Map&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>w词条词条List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加詞条信息_处理主词条(Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>詞条信息map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;Map&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>w词条词条List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加詞条信息map(Map&lt;String, Object&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>詞条信息map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>20190313版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查为何会在W中出现顾客信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘00000000050000000002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000004</t>
     </r>
     <r>
       <rPr>
@@ -1635,7 +2160,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000008</t>
+      <t>00000000050000000007</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1647,77 +2172,12 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线 (正文)"/>
+        <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
-      </rPr>
-      <t>00000000060000000001</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00000000050000000013</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00000000060000000003</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00000000050000000003</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘00000000060000000003</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00000000050000000010</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>00000000050000000010</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000007</t>
     </r>
     <r>
       <rPr>
@@ -1728,48 +2188,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000000050000000012</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【是】修饰了工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【人类】修饰智慧的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【智慧】修饰它的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【是】修饰了【结晶】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类】是修饰思维的，所以人类为思维服务，但是思维不必为人类服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然】是修饰语言的，所以自然为语言服务，但是语言不必为自然服务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你要先保证数据伦理的正确性，再考虑其他扩展。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里不应该有值了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为【值】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本身就是为其他人服务的。</t>
+      <t>0000000006000000000600000000070000000002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1777,15 +2198,12 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
+        <rFont val="等线 (正文)"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000000050000000007</t>
+      </rPr>
+      <t>00000000050000000010</t>
     </r>
     <r>
       <rPr>
@@ -1796,13 +2214,76 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0000000006000000000600000000070000000002</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加記録_by対象数据and已処理数据(対象数据DTO </t>
+      <t>00000000050000000012</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加W词条的Bean数据_by构造词条信息Map</t>
+  </si>
+  <si>
+    <r>
+      <t>追加W词条的Bean数据_by构造词条信息Map(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.getKey(), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.getValue()).get(PublicName.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>KEY_数据ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加W词条的数据_by辅臣List(String </t>
     </r>
     <r>
       <rPr>
@@ -1811,7 +2292,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>対象数据dto</t>
+      <t>key</t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +2301,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
+      <t xml:space="preserve">, Object </t>
     </r>
     <r>
       <rPr>
@@ -1829,7 +2310,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>已処理数据</t>
+      <t>value</t>
     </r>
     <r>
       <rPr>
@@ -1838,12 +2319,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>追加記録_by対象数据and已処理数据(</t>
+      <t xml:space="preserve">, Map&lt;String, Object&gt; </t>
     </r>
     <r>
       <rPr>
@@ -1852,7 +2328,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>対象数据dto</t>
+      <t>詞条信息map</t>
     </r>
     <r>
       <rPr>
@@ -1861,7 +2337,12 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">追加詞条信息_处理W词条List(Map&lt;String, Object&gt; </t>
     </r>
     <r>
       <rPr>
@@ -1870,7 +2351,7 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>已処理数据</t>
+      <t>詞条信息map</t>
     </r>
     <r>
       <rPr>
@@ -1883,342 +2364,7 @@
     </r>
   </si>
   <si>
-    <t>追加直接記録_by処理対象DTO</t>
-  </si>
-  <si>
-    <r>
-      <t>追加直接記録_by処理対象DTO(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>処理対象dto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>已処理数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加処理_単条数据(対象数据DTO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>処理対象dto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>已処理数据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加_by数据_Map(String </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Map&lt;String, Object&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>追加処理对象map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>已処理数据List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">処理対象類型_Map(List&lt;数据DTO&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>local已処理数据List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Entry&lt;String, Object&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>entry今</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加_by数据(Map&lt;String,Object&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>追加処理对象map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, List&lt;数据DTO&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>已処理数据List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">为主词条追加W词条关系信息(Map&lt;String, String&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>主詞条信息Map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, List&lt;Map&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>w词条词条List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加詞条信息_处理主词条(Map&lt;String, Object&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>詞条信息map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, List&lt;Map&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>w词条词条List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">追加詞条信息map(Map&lt;String, Object&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>詞条信息map</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>20190313版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查为何会在W中出现顾客信息</t>
+    <t>追加W词条的数据_处理每一个w词条Map(Map&lt;String, Object&gt; w词条, Map&lt;String, Object&gt; 詞条信息map)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2226,7 +2372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2390,15 +2536,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2428,6 +2565,27 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2680,10 +2838,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10187,8 +10345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
   <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A8" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10441,7 +10599,7 @@
         <v>156</v>
       </c>
       <c r="W30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -10452,7 +10610,7 @@
         <v>147</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -10464,7 +10622,7 @@
         <v>145</v>
       </c>
       <c r="W31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -10475,7 +10633,7 @@
         <v>119</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -10487,7 +10645,7 @@
         <v>117</v>
       </c>
       <c r="W32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="3:25">
@@ -10498,7 +10656,7 @@
         <v>117</v>
       </c>
       <c r="J33" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="Q33" t="s">
         <v>119</v>
@@ -10518,7 +10676,7 @@
         <v>123</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -10538,7 +10696,7 @@
         <v>121</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q35" t="s">
         <v>123</v>
@@ -10558,7 +10716,7 @@
         <v>125</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -10579,7 +10737,7 @@
         <v>128</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
@@ -10603,7 +10761,7 @@
         <v>131</v>
       </c>
       <c r="J38" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="Q38" t="s">
         <v>128</v>
@@ -10615,7 +10773,7 @@
         <v>220</v>
       </c>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="3:25">
@@ -10626,7 +10784,7 @@
         <v>136</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
@@ -10638,7 +10796,7 @@
         <v>134</v>
       </c>
       <c r="Y39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="3:25">
@@ -10669,7 +10827,7 @@
         <v>139</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
@@ -10683,7 +10841,7 @@
         <v>142</v>
       </c>
       <c r="Y41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="3:25">
@@ -10711,7 +10869,7 @@
         <v>233</v>
       </c>
       <c r="Y42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="3:25">
@@ -10981,7 +11139,7 @@
         <v>157</v>
       </c>
       <c r="G65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J65" s="38" t="s">
         <v>146</v>
@@ -10995,7 +11153,7 @@
         <v>159</v>
       </c>
       <c r="G66" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J66" s="39" t="s">
         <v>150</v>
@@ -11009,7 +11167,7 @@
         <v>161</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J67" s="39" t="s">
         <v>210</v>
@@ -11243,82 +11401,127 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7C1E8-7790-8046-8CE4-A4E029D6B35A}">
-  <dimension ref="B2:O26"/>
+  <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="10" width="3.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="42">
-      <c r="C2" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="D9" s="37"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="37"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="C12" s="37" t="s">
+    <row r="2" spans="3:19" ht="42">
+      <c r="D2" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="E9" s="37"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="37"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="D12" s="37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="E13" s="37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="F14" s="37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="G15" s="37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="H16" s="37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="I17" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="J18" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="K19" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="D22" s="37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="37"/>
+      <c r="E23" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="D24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="E25" s="37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="F26" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="G27" s="37" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="D13" s="37" t="s">
+    <row r="28" spans="1:14">
+      <c r="H28" s="37" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="E14" s="37" t="s">
+    <row r="29" spans="1:14">
+      <c r="I29" s="37" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="F15" s="37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="G16" s="37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="H17" s="37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="I18" s="37" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="J19" s="37" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
-      <c r="D25" s="37" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="E26" s="37" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52E608F-1BA1-5744-9DE0-ACD704D9881C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4A45C-0CD9-1E4F-8BD3-517A5805B885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1940" windowWidth="28800" windowHeight="15940" activeTab="6" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="60" yWindow="2140" windowWidth="28800" windowHeight="10940" activeTab="7" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="20190309" sheetId="5" r:id="rId5"/>
     <sheet name="20190311" sheetId="6" r:id="rId6"/>
     <sheet name="20190313" sheetId="7" r:id="rId7"/>
+    <sheet name="20190316" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="339">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2365,6 +2366,130 @@
   </si>
   <si>
     <t>追加W词条的数据_处理每一个w词条Map(Map&lt;String, Object&gt; w词条, Map&lt;String, Object&gt; 詞条信息map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190316版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│   │   ├── 0000000006</t>
+  </si>
+  <si>
+    <t>    │   ├── 0000000006</t>
+  </si>
+  <si>
+    <t>詞条別名保存方式保存形式值什么怎么样</t>
+  </si>
+  <si>
+    <t>00000000050000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>00000000050000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000020000000006000000000400000000060000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000007000000000100000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000000300000000060000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000005000000000100000000060000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000005000000000300000000060000000003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000020000000005000000000400000000060000000007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10345,8 +10470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
   <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView topLeftCell="A14" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G88" sqref="A6:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11403,8 +11528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7C1E8-7790-8046-8CE4-A4E029D6B35A}">
   <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11528,4 +11653,1021 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CDC155-EE5B-4740-839A-81B63AED10DB}">
+  <dimension ref="B2:S89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="4:19" ht="42">
+      <c r="D2" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="8" spans="4:19">
+      <c r="D8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19">
+      <c r="D9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19">
+      <c r="D10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19">
+      <c r="D11" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19">
+      <c r="D12" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="4:19">
+      <c r="D13" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="4:19">
+      <c r="D14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19">
+      <c r="D15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19">
+      <c r="D16" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="D18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="D19" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="D20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="D21" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="D22" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="D23" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="D24" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>134</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="D25" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="D26" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="D27" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="D28" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="D29" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="O29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="D30" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="D31" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15">
+      <c r="D33" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15">
+      <c r="D34" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15">
+      <c r="D35" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15">
+      <c r="D36" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15">
+      <c r="D37" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15">
+      <c r="D38" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15">
+      <c r="D39" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" t="s">
+        <v>128</v>
+      </c>
+      <c r="K39" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="O39" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15">
+      <c r="D40" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15">
+      <c r="D41" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15">
+      <c r="D42" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="O42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15">
+      <c r="D43" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="N43" t="s">
+        <v>263</v>
+      </c>
+      <c r="O43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15">
+      <c r="D44" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="O44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15">
+      <c r="D45" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="O45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15">
+      <c r="D46" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="O46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15">
+      <c r="D47" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="O47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15">
+      <c r="D48" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" t="s">
+        <v>264</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O48" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="D49" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="D50" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="O51" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="D52" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="O52" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="D53" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="K53" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="O53" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="D54" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K54" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="O54" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="D55" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="O55" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="D56" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="K56" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="O56" s="32" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="D57" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="O57" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="D58" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="O58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="D59" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O59" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="D60" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="K60" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="O60" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="D61" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="K61" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="O61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="D62" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="D63" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="D64" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="K64" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="O64" s="32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="D65" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="K65" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="O65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="O66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="D67" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" t="s">
+        <v>283</v>
+      </c>
+      <c r="K67" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="O67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="D68" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
+      <c r="K68" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="O68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="D69" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" t="s">
+        <v>285</v>
+      </c>
+      <c r="K69" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="O69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="D70" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="K70" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="O70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="D71" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="K71" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="O71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="D72" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="K72" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="O72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="D73" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K73" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="O73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="D74" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="O74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="D75" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="K75" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="O75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="D76" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="O76" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="D77" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" t="s">
+        <v>265</v>
+      </c>
+      <c r="K77" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="O77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="D78" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="K78" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="D79" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="K79" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="D80" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="K80" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="O80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="K81" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="D82" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H82" t="s">
+        <v>145</v>
+      </c>
+      <c r="K82" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="D83" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K83" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="D84" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H84" t="s">
+        <v>220</v>
+      </c>
+      <c r="K84" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="O84" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K85" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="D86" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H86" t="s">
+        <v>233</v>
+      </c>
+      <c r="K86" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="O86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="D87" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="H87" t="s">
+        <v>220</v>
+      </c>
+      <c r="K87" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="O87" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="D88" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="O89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A4A45C-0CD9-1E4F-8BD3-517A5805B885}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9033381-7957-BA4D-AAC1-029779A331C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2140" windowWidth="28800" windowHeight="10940" activeTab="7" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="80" yWindow="800" windowWidth="28780" windowHeight="18180" activeTab="7" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="374">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2379,9 +2379,6 @@
     <t>    │   ├── 0000000006</t>
   </si>
   <si>
-    <t>詞条別名保存方式保存形式值什么怎么样</t>
-  </si>
-  <si>
     <t>00000000050000000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2390,9 +2387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>'</t>
-  </si>
-  <si>
     <t>00000000050000000004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2481,15 +2475,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000000005000000000100000000060000000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000000005000000000300000000060000000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000000600000000020000000005000000000400000000060000000007</t>
+    <t>0000000006000000000500000000060000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000030000000006000000000600000000060000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000070000000005000000000600000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000090000000005000000000800000000060000000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000001000000000060000000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000110000000005000000000900000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000001000000000500000000020000000007000000000200000000060000000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000120000000005000000000700000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000060000000008000000000500000000070000000007000000000100000000060000000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>自然, 语言, 人类, 思维, 交流, 工具, 是, 智慧, 结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詞条, 別名, 保存, 方式, 保存, 形式,值, 什么, 怎么样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00000000050000000001</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000013</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0501=自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0505=交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.       2.       3.       4.        5.      6.        7.     8      9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00000000050000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000003</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000004</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000007</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00000000050000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000005</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000050000000005</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0503=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0504=思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0506=工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0508=智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0509=结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0502=语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>00000000050000000003</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00000000060000000010</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>│</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000000200000000050000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000000400000000050000000005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000000700000000050000000006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000000900000000050000000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000001100000000050000000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000010000000005000000000200000000070000000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000000006000000001200000000050000000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000600000000080000000005000000000700000000070000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190317版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2713,7 +2962,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2735,6 +2984,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2848,7 +3109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2967,6 +3228,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10470,8 +10743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
   <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G88" sqref="A6:G88"/>
+    <sheetView topLeftCell="C12" zoomScale="114" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11657,1013 +11930,1490 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CDC155-EE5B-4740-839A-81B63AED10DB}">
-  <dimension ref="B2:S89"/>
+  <dimension ref="B2:AE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="4:19" ht="42">
+    <row r="2" spans="4:31" ht="42">
       <c r="D2" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="S2" s="34"/>
-    </row>
-    <row r="8" spans="4:19">
+      <c r="T2" s="34"/>
+      <c r="AD2" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE2" s="34"/>
+    </row>
+    <row r="8" spans="4:31">
       <c r="D8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="L8" s="33" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="4:19">
+      <c r="X8" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="4:31">
       <c r="D9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="L9" s="33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="4:19">
+      <c r="X9" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="4:31">
       <c r="D10" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="L10" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="4:19">
+      <c r="X10" s="33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="4:31">
       <c r="D11" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="L11" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="O11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="4:19">
+      <c r="P11" t="s">
+        <v>347</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="4:31">
       <c r="D12" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="L12" s="33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="4:19">
+      <c r="X12" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="4:31">
       <c r="D13" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="L13" s="33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="4:19">
+      <c r="X13" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="4:31">
       <c r="D14" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="L14" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="4:19">
+      <c r="P14" t="s">
+        <v>346</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="4:31">
       <c r="D15" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="L15" s="33" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="4:19">
+      <c r="P15" t="s">
+        <v>352</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="4:31">
       <c r="D16" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="L16" s="33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="X16" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
       <c r="B17" t="s">
         <v>262</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="L17" s="33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="X17" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
       <c r="D18" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="L18" s="33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="X18" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="D19" s="33" t="s">
         <v>116</v>
       </c>
       <c r="H19" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="L19" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="P19" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB19" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD19" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="D20" s="33" t="s">
         <v>120</v>
       </c>
       <c r="H20" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="L20" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="O20" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="P20" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="D21" s="33" t="s">
         <v>124</v>
       </c>
       <c r="H21" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="L21" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="P21" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB21" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
       <c r="D22" s="33" t="s">
         <v>127</v>
       </c>
       <c r="H22" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="L22" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="O22" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="P22" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="X22" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB22" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30">
       <c r="D23" s="33" t="s">
         <v>130</v>
       </c>
       <c r="H23" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="L23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O23" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="P23" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB23" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD23" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="D24" s="33" t="s">
         <v>133</v>
       </c>
       <c r="H24" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="L24" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="O24" s="32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="P24" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="X24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB24" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD24" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
       <c r="D25" s="33" t="s">
         <v>138</v>
       </c>
       <c r="H25" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="L25" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="O25" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="P25" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="X25" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB25" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD25" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
       <c r="D26" s="33" t="s">
         <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="L26" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="P26" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="X26" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
       <c r="D27" s="33" t="s">
         <v>144</v>
       </c>
       <c r="H27" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="L27" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="P27" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="X27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB27" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD27" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
       <c r="D28" s="33" t="s">
         <v>148</v>
       </c>
       <c r="H28" t="s">
         <v>149</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="L28" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="O28" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="P28" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="X28" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB28" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD28" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
       <c r="D29" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="L29" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="O29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="U29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
       <c r="D30" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="L30" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="O30" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="P30" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="R30" t="s">
+        <v>351</v>
+      </c>
+      <c r="U30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB30" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30">
       <c r="D31" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="L31" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="O31" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="P31" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="R31" t="s">
+        <v>351</v>
+      </c>
+      <c r="U31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB31" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30">
       <c r="B32" t="s">
         <v>261</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="L32" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="O32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="4:15">
+      <c r="X32" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="4:28">
       <c r="D33" s="33" t="s">
         <v>157</v>
       </c>
       <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="L33" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="O33" s="32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="4:15">
+      <c r="P33" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="X33" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="4:28">
       <c r="D34" s="33" t="s">
         <v>159</v>
       </c>
       <c r="H34" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="L34" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="O34" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="35" spans="4:15">
+      <c r="P34" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="X34" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="4:28">
       <c r="D35" s="33" t="s">
         <v>161</v>
       </c>
       <c r="H35" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="L35" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="O35" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="4:15">
+      <c r="P35" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="X35" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="4:28">
       <c r="D36" s="33" t="s">
         <v>163</v>
       </c>
       <c r="H36" t="s">
         <v>123</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="L36" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="O36" s="32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="37" spans="4:15">
+      <c r="P36" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="X36" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28">
       <c r="D37" s="33" t="s">
         <v>165</v>
       </c>
       <c r="H37" t="s">
         <v>121</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="L37" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="O37" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="4:15">
+      <c r="P37" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="X37" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="4:28">
       <c r="D38" s="33" t="s">
         <v>167</v>
       </c>
       <c r="H38" t="s">
         <v>125</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="L38" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="O38" s="32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="4:15">
+      <c r="P38" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="X38" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="4:28">
       <c r="D39" s="33" t="s">
         <v>169</v>
       </c>
       <c r="H39" t="s">
         <v>128</v>
       </c>
-      <c r="K39" s="33" t="s">
+      <c r="L39" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="O39" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="4:15">
+      <c r="P39" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="X39" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="4:28">
       <c r="D40" s="33" t="s">
         <v>171</v>
       </c>
       <c r="H40" t="s">
         <v>131</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="L40" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="O40" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="4:15">
+      <c r="P40" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="X40" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="4:28">
       <c r="D41" s="33" t="s">
         <v>172</v>
       </c>
       <c r="H41" t="s">
         <v>136</v>
       </c>
-      <c r="K41" s="33" t="s">
+      <c r="L41" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="O41" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="4:15">
+      <c r="P41" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="X41" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="4:28">
       <c r="D42" s="33" t="s">
         <v>174</v>
       </c>
       <c r="H42" t="s">
         <v>134</v>
       </c>
-      <c r="K42" s="33" t="s">
+      <c r="L42" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="O42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="43" spans="4:15">
+      <c r="P42" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="4:28">
       <c r="D43" s="33" t="s">
         <v>176</v>
       </c>
       <c r="H43" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="L43" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="N43" t="s">
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="O43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="4:15">
+      <c r="X43" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="4:28">
       <c r="D44" s="33" t="s">
         <v>178</v>
       </c>
       <c r="H44" t="s">
         <v>142</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="L44" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="O44" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="45" spans="4:15">
+      <c r="X44" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="4:28">
       <c r="D45" s="33" t="s">
         <v>180</v>
       </c>
       <c r="H45" t="s">
         <v>145</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="L45" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="O45" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="4:15">
+      <c r="X45" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="4:28">
       <c r="D46" s="33" t="s">
         <v>182</v>
       </c>
       <c r="H46" t="s">
         <v>149</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="L46" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="O46" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="47" spans="4:15">
+      <c r="X46" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="4:28">
       <c r="D47" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="L47" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="O47" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="4:15">
+      <c r="X47" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="4:28">
       <c r="D48" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>264</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="L48" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="O48" s="32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="P48" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="X48" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB48" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28">
       <c r="D49" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="L49" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O49" s="32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="P49" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="X49" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB49" s="32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28">
       <c r="D50" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="L50" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="O50" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="P50" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="X50" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB50" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28">
       <c r="B51" t="s">
         <v>262</v>
       </c>
       <c r="D51" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="L51" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="O51" s="32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
+      <c r="P51" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="X51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB51" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28">
       <c r="D52" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="L52" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="O52" s="32" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="P52" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="X52" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB52" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28">
       <c r="D53" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="L53" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="O53" s="32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
+      <c r="P53" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="X53" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB53" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28">
       <c r="D54" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="K54" s="33" t="s">
+      <c r="L54" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="O54" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
+      <c r="P54" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="X54" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB54" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28">
       <c r="D55" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="L55" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="O55" s="32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
+      <c r="P55" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="X55" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB55" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28">
       <c r="D56" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="K56" s="33" t="s">
+      <c r="L56" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="O56" s="32" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
+      <c r="P56" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="X56" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB56" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28">
       <c r="D57" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="L57" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="O57" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
+      <c r="P57" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="X57" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB57" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28">
       <c r="D58" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="L58" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="O58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
+      <c r="X58" s="33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28">
       <c r="D59" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="L59" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="O59" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
+      <c r="P59" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="X59" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB59" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28">
       <c r="D60" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="L60" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="O60" s="32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
+      <c r="P60" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="X60" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB60" s="32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28">
       <c r="D61" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="L61" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="O61" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
+      <c r="X61" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28">
       <c r="D62" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="K62" s="33" t="s">
+      <c r="L62" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="O62" s="32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="P62" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="X62" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB62" s="32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28">
       <c r="D63" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="K63" s="33" t="s">
+      <c r="L63" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="O63" s="32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15">
+      <c r="P63" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="X63" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB63" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28">
       <c r="D64" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="K64" s="33" t="s">
+      <c r="L64" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="O64" s="32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15">
+      <c r="P64" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="X64" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB64" s="32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28">
       <c r="D65" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="K65" s="33" t="s">
+      <c r="L65" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="O65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15">
+      <c r="P65" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="X65" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB65" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28">
       <c r="B66" t="s">
         <v>261</v>
       </c>
       <c r="D66" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K66" s="33" t="s">
+      <c r="L66" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="O66" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15">
+      <c r="P66" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="X66" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB66" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28">
       <c r="D67" s="33" t="s">
         <v>157</v>
       </c>
       <c r="H67" t="s">
         <v>283</v>
       </c>
-      <c r="K67" s="33" t="s">
+      <c r="L67" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="O67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15">
+      <c r="P67" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="X67" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB67" s="32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28">
       <c r="D68" s="33" t="s">
         <v>159</v>
       </c>
       <c r="H68" t="s">
         <v>284</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="L68" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="O68" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15">
+      <c r="P68" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="X68" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB68" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28">
       <c r="D69" s="33" t="s">
         <v>161</v>
       </c>
       <c r="H69" t="s">
         <v>285</v>
       </c>
-      <c r="K69" s="33" t="s">
+      <c r="L69" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="O69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15">
+      <c r="P69" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="X69" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB69" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28">
       <c r="D70" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="K70" s="33" t="s">
+      <c r="L70" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="O70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15">
+      <c r="P70" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="X70" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB70" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28">
       <c r="D71" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="K71" s="33" t="s">
+      <c r="L71" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="O71" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15">
+      <c r="P71" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="X71" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB71" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28">
       <c r="D72" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="L72" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O72" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15">
+      <c r="P72" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="X72" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z72" s="32"/>
+      <c r="AB72" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28">
       <c r="D73" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="K73" s="33" t="s">
+      <c r="L73" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="O73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15">
+      <c r="P73" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="X73" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z73" s="32"/>
+      <c r="AB73" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28">
       <c r="D74" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="K74" s="33" t="s">
+      <c r="L74" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="O74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15">
+      <c r="P74" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="X74" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z74" s="32"/>
+      <c r="AB74" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28">
       <c r="D75" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="K75" s="33" t="s">
+      <c r="L75" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="O75" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15">
+      <c r="P75" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="X75" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z75" s="32"/>
+      <c r="AB75" s="32" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28">
       <c r="D76" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="33" t="s">
+      <c r="L76" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="O76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15">
+      <c r="X76" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z76" s="32"/>
+    </row>
+    <row r="77" spans="2:28">
       <c r="D77" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>265</v>
       </c>
-      <c r="K77" s="33" t="s">
+      <c r="L77" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="O77" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15">
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="P77" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="X77" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z77" s="32"/>
+    </row>
+    <row r="78" spans="2:28">
       <c r="D78" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="K78" s="33" t="s">
+      <c r="L78" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="O78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15">
+      <c r="X78" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z78" s="32"/>
+    </row>
+    <row r="79" spans="2:28">
       <c r="D79" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="K79" s="33" t="s">
+      <c r="L79" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="O79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15">
+      <c r="X79" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z79" s="32"/>
+    </row>
+    <row r="80" spans="2:28">
       <c r="D80" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="K80" s="33" t="s">
+      <c r="L80" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="O80" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15">
+      <c r="X80" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z80" s="32"/>
+    </row>
+    <row r="81" spans="2:28">
       <c r="B81" t="s">
         <v>262</v>
       </c>
       <c r="D81" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K81" s="33" t="s">
+      <c r="L81" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="O81" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15">
+      <c r="X81" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z81" s="32"/>
+    </row>
+    <row r="82" spans="2:28">
       <c r="D82" s="33" t="s">
         <v>221</v>
       </c>
       <c r="H82" t="s">
         <v>145</v>
       </c>
-      <c r="K82" s="33" t="s">
+      <c r="L82" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="O82" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15">
+      <c r="P82" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="X82" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB82" s="32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="83" spans="2:28">
       <c r="D83" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="L83" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="O83" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15">
+      <c r="X83" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="2:28">
       <c r="D84" s="33" t="s">
         <v>224</v>
       </c>
       <c r="H84" t="s">
         <v>220</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="L84" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O84" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15">
+      <c r="P84" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="X84" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB84" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="2:28">
       <c r="B85" t="s">
         <v>261</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="K85" s="33" t="s">
+      <c r="L85" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="O85" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15">
+      <c r="X85" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="2:28">
       <c r="D86" s="33" t="s">
         <v>227</v>
       </c>
       <c r="H86" t="s">
         <v>233</v>
       </c>
-      <c r="K86" s="33" t="s">
+      <c r="L86" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="O86" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15">
+      <c r="P86" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="X86" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB86" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="2:28">
       <c r="D87" s="33" t="s">
         <v>229</v>
       </c>
       <c r="H87" t="s">
         <v>220</v>
       </c>
-      <c r="K87" s="33" t="s">
+      <c r="L87" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="O87" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15">
+      <c r="P87" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="X87" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB87" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="2:28">
       <c r="D88" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="K88" s="33" t="s">
+      <c r="L88" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="O88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15">
-      <c r="O89" t="s">
-        <v>313</v>
+      <c r="X88" s="33" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9033381-7957-BA4D-AAC1-029779A331C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5589929F-D061-3449-9231-526DDBB2B24C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="800" windowWidth="28780" windowHeight="18180" activeTab="7" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="1760" yWindow="1520" windowWidth="31380" windowHeight="18180" activeTab="8" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="20190311" sheetId="6" r:id="rId6"/>
     <sheet name="20190313" sheetId="7" r:id="rId7"/>
     <sheet name="20190316" sheetId="8" r:id="rId8"/>
+    <sheet name="20190318" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="405">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2739,6 +2740,130 @@
   </si>
   <si>
     <t>20190317版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0601=自然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0602=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603=思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0604=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0605=交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0608=工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0609=人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0610=智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0612=结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0613=语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0701=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0702=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0606=()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0607=()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0611=()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0614=()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为不好处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析的时候，尽量去掉null的部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题。如何去掉null部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他是单传的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是每个NP或VP的太子只能是一个人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之所以是null，是因为【的】和【与】被省略了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就出现了空白，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为它破坏了规矩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，您又不能把后面的值直接顶上去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP=语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VC=是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8030,6 +8155,932 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA640109-997B-DD42-A3FE-F218D2A6D952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="406400"/>
+          <a:ext cx="2870200" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0DD56D-703E-1743-9495-234BA7345E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3860800"/>
+          <a:ext cx="2679700" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6CBAC1-3090-704E-9A6C-8384D09333F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="6705600"/>
+          <a:ext cx="3581400" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CFB1C6-6880-6247-8DC1-DA95528DF991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7861300" y="406400"/>
+          <a:ext cx="4140200" cy="3327400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD5BC47-E922-C547-B8DD-B175D4A12782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13614400" y="4813300"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>思维</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D8EB9E-2C4C-8F44-9993-088B1FCD782A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14579600" y="4076700"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>交流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFEAC91-2F02-8949-931D-50711C926EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="5461000"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20013FBB-F1A4-3248-B948-C5E03DD99B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="6273800"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D06C217-7095-7F44-88E6-DD306FEA3F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12750800" y="4127500"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>人类</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5445AD-0766-1848-A2E4-589BA92724DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14008100" y="3314700"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>人类</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A61EA2-566E-AD45-8EAB-609BFF75B81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15062200" y="4800600"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>与</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7343DCA-E373-4544-B852-59185EEE156E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="4635500"/>
+          <a:ext cx="444500" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBD7005-7A9A-604E-A49C-082CF32AB1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14198600" y="5321300"/>
+          <a:ext cx="292100" cy="177800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7019B803-4FE6-3A43-B51C-8E176B8D715E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14859000" y="5194300"/>
+          <a:ext cx="533400" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D714CF9-74BA-8642-9317-A6B0E6462A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15062200" y="4546600"/>
+          <a:ext cx="349250" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE4DBCD9-AF49-5F4F-8DD6-EF5750FCE718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14357350" y="3886200"/>
+          <a:ext cx="565150" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直线连接符 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6284668-309C-E04D-A009-756FA3263EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14846300" y="5930900"/>
+          <a:ext cx="190500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8329,7 +9380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBD063A-8CDF-AE43-87BD-0D5E20CBEF2D}">
   <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -8451,7 +9502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42465A32-07A8-A441-B3B4-5097F64B2652}">
   <dimension ref="B2:U76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="S46" sqref="S46:U46"/>
     </sheetView>
   </sheetViews>
@@ -9879,9 +10930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B84FA-5CE6-DB48-AB54-C4E57F0B93E1}">
   <dimension ref="B2:T99"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" zoomScale="103" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -10743,7 +11792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ED590E-E866-F94F-97FC-0C30DCB763C4}">
   <dimension ref="A2:Y86"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -11801,9 +12850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F7C1E8-7790-8046-8CE4-A4E029D6B35A}">
   <dimension ref="A2:S29"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
-    </sheetView>
+    <sheetView zoomScale="131" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -11930,10 +12977,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CDC155-EE5B-4740-839A-81B63AED10DB}">
-  <dimension ref="B2:AE88"/>
+  <dimension ref="B2:AK88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12044,6 +13091,9 @@
       <c r="X14" s="33" t="s">
         <v>112</v>
       </c>
+      <c r="Z14" t="s">
+        <v>264</v>
+      </c>
       <c r="AB14" t="s">
         <v>346</v>
       </c>
@@ -12076,7 +13126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:35">
       <c r="B17" t="s">
         <v>262</v>
       </c>
@@ -12090,7 +13140,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:35">
       <c r="D18" s="33" t="s">
         <v>115</v>
       </c>
@@ -12101,7 +13151,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:35">
       <c r="D19" s="33" t="s">
         <v>116</v>
       </c>
@@ -12123,11 +13173,14 @@
       <c r="AB19" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="AD19" s="32" t="s">
+      <c r="AH19" s="32" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="20" spans="2:30">
+      <c r="AI19" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35">
       <c r="D20" s="33" t="s">
         <v>120</v>
       </c>
@@ -12149,11 +13202,14 @@
       <c r="AB20" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="AD20" s="32" t="s">
+      <c r="AH20" s="32" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="21" spans="2:30">
+      <c r="AI20" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
       <c r="D21" s="33" t="s">
         <v>124</v>
       </c>
@@ -12175,11 +13231,14 @@
       <c r="AB21" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="AD21" s="32" t="s">
+      <c r="AH21" s="32" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="22" spans="2:30">
+      <c r="AI21" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35">
       <c r="D22" s="33" t="s">
         <v>127</v>
       </c>
@@ -12201,11 +13260,14 @@
       <c r="AB22" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="AD22" s="32" t="s">
+      <c r="AH22" s="32" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="23" spans="2:30">
+      <c r="AI22" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
       <c r="D23" s="33" t="s">
         <v>130</v>
       </c>
@@ -12227,11 +13289,14 @@
       <c r="AB23" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="AD23" s="32" t="s">
+      <c r="AH23" s="32" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="24" spans="2:30">
+      <c r="AI23" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35">
       <c r="D24" s="33" t="s">
         <v>133</v>
       </c>
@@ -12253,11 +13318,14 @@
       <c r="AB24" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="AD24" s="32" t="s">
+      <c r="AH24" s="32" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="25" spans="2:30">
+      <c r="AI24" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35">
       <c r="D25" s="33" t="s">
         <v>138</v>
       </c>
@@ -12279,11 +13347,14 @@
       <c r="AB25" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="AD25" s="32" t="s">
+      <c r="AH25" s="32" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="26" spans="2:30">
+      <c r="AI25" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35">
       <c r="D26" s="33" t="s">
         <v>141</v>
       </c>
@@ -12305,11 +13376,14 @@
       <c r="AB26" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="AD26" s="32" t="s">
+      <c r="AH26" s="32" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="27" spans="2:30">
+      <c r="AI26" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35">
       <c r="D27" s="33" t="s">
         <v>144</v>
       </c>
@@ -12331,11 +13405,14 @@
       <c r="AB27" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="AD27" s="32" t="s">
+      <c r="AH27" s="32" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="28" spans="2:30">
+      <c r="AI27" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35">
       <c r="D28" s="33" t="s">
         <v>148</v>
       </c>
@@ -12357,11 +13434,14 @@
       <c r="AB28" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="AD28" s="32" t="s">
+      <c r="AH28" s="32" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="29" spans="2:30">
+      <c r="AI28" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35">
       <c r="D29" s="33" t="s">
         <v>151</v>
       </c>
@@ -12374,8 +13454,11 @@
       <c r="X29" s="33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="30" spans="2:30">
+      <c r="AI29" s="32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35">
       <c r="D30" s="33" t="s">
         <v>152</v>
       </c>
@@ -12397,11 +13480,14 @@
       <c r="AB30" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="AD30" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30">
+      <c r="AH30" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35">
       <c r="D31" s="33" t="s">
         <v>154</v>
       </c>
@@ -12423,11 +13509,14 @@
       <c r="AB31" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="AD31" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30">
+      <c r="AH31" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI31" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35">
       <c r="B32" t="s">
         <v>261</v>
       </c>
@@ -12441,7 +13530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="4:28">
+    <row r="33" spans="4:35">
       <c r="D33" s="33" t="s">
         <v>157</v>
       </c>
@@ -12463,7 +13552,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="34" spans="4:28">
+    <row r="34" spans="4:35">
       <c r="D34" s="33" t="s">
         <v>159</v>
       </c>
@@ -12485,7 +13574,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="35" spans="4:28">
+    <row r="35" spans="4:35">
       <c r="D35" s="33" t="s">
         <v>161</v>
       </c>
@@ -12507,7 +13596,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="4:28">
+    <row r="36" spans="4:35">
       <c r="D36" s="33" t="s">
         <v>163</v>
       </c>
@@ -12529,7 +13618,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="4:28">
+    <row r="37" spans="4:35">
       <c r="D37" s="33" t="s">
         <v>165</v>
       </c>
@@ -12551,7 +13640,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="4:28">
+    <row r="38" spans="4:35">
       <c r="D38" s="33" t="s">
         <v>167</v>
       </c>
@@ -12573,7 +13662,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="4:28">
+    <row r="39" spans="4:35">
       <c r="D39" s="33" t="s">
         <v>169</v>
       </c>
@@ -12595,7 +13684,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="40" spans="4:28">
+    <row r="40" spans="4:35">
       <c r="D40" s="33" t="s">
         <v>171</v>
       </c>
@@ -12617,7 +13706,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="4:28">
+    <row r="41" spans="4:35">
       <c r="D41" s="33" t="s">
         <v>172</v>
       </c>
@@ -12639,7 +13728,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="42" spans="4:28">
+    <row r="42" spans="4:35">
       <c r="D42" s="33" t="s">
         <v>174</v>
       </c>
@@ -12656,7 +13745,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="4:28">
+    <row r="43" spans="4:35">
       <c r="D43" s="33" t="s">
         <v>176</v>
       </c>
@@ -12674,8 +13763,11 @@
       <c r="X43" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="44" spans="4:28">
+      <c r="Z43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="4:35">
       <c r="D44" s="33" t="s">
         <v>178</v>
       </c>
@@ -12689,7 +13781,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="4:28">
+    <row r="45" spans="4:35">
       <c r="D45" s="33" t="s">
         <v>180</v>
       </c>
@@ -12703,7 +13795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="4:28">
+    <row r="46" spans="4:35">
       <c r="D46" s="33" t="s">
         <v>182</v>
       </c>
@@ -12717,7 +13809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="4:28">
+    <row r="47" spans="4:35">
       <c r="D47" s="33" t="s">
         <v>111</v>
       </c>
@@ -12728,7 +13820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="4:28">
+    <row r="48" spans="4:35">
       <c r="D48" s="33" t="s">
         <v>184</v>
       </c>
@@ -12747,8 +13839,14 @@
       <c r="AB48" s="32" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="49" spans="2:28">
+      <c r="AH48" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI48" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36">
       <c r="D49" s="33" t="s">
         <v>109</v>
       </c>
@@ -12764,8 +13862,14 @@
       <c r="AB49" s="32" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="50" spans="2:28">
+      <c r="AH49" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI49" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="2:36">
       <c r="D50" s="33" t="s">
         <v>110</v>
       </c>
@@ -12781,8 +13885,14 @@
       <c r="AB50" s="32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="51" spans="2:28">
+      <c r="AH50" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI50" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="2:36">
       <c r="B51" t="s">
         <v>262</v>
       </c>
@@ -12801,8 +13911,14 @@
       <c r="AB51" s="32" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="52" spans="2:28">
+      <c r="AH51" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI51" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="2:36">
       <c r="D52" s="33" t="s">
         <v>115</v>
       </c>
@@ -12818,8 +13934,14 @@
       <c r="AB52" s="32" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="53" spans="2:28">
+      <c r="AH52" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI52" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="2:36">
       <c r="D53" s="33" t="s">
         <v>187</v>
       </c>
@@ -12835,8 +13957,14 @@
       <c r="AB53" s="32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="54" spans="2:28">
+      <c r="AH53" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI53" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36">
       <c r="D54" s="33" t="s">
         <v>190</v>
       </c>
@@ -12852,8 +13980,14 @@
       <c r="AB54" s="32" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="55" spans="2:28">
+      <c r="AH54" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI54" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="2:36">
       <c r="D55" s="33" t="s">
         <v>116</v>
       </c>
@@ -12869,8 +14003,14 @@
       <c r="AB55" s="32" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="56" spans="2:28">
+      <c r="AH55" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI55" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="2:36">
       <c r="D56" s="33" t="s">
         <v>195</v>
       </c>
@@ -12886,8 +14026,14 @@
       <c r="AB56" s="32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="57" spans="2:28">
+      <c r="AH56" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI56" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="2:36">
       <c r="D57" s="33" t="s">
         <v>120</v>
       </c>
@@ -12903,8 +14049,14 @@
       <c r="AB57" s="32" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="58" spans="2:28">
+      <c r="AH57" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI57" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="2:36">
       <c r="D58" s="33" t="s">
         <v>130</v>
       </c>
@@ -12915,7 +14067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="2:28">
+    <row r="59" spans="2:36">
       <c r="D59" s="33" t="s">
         <v>200</v>
       </c>
@@ -12931,8 +14083,14 @@
       <c r="AB59" s="32" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="60" spans="2:28">
+      <c r="AH59" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI59" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="2:36">
       <c r="D60" s="33" t="s">
         <v>133</v>
       </c>
@@ -12948,8 +14106,14 @@
       <c r="AB60" s="32" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="61" spans="2:28">
+      <c r="AH60" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI60" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="61" spans="2:36">
       <c r="D61" s="33" t="s">
         <v>141</v>
       </c>
@@ -12960,7 +14124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:28">
+    <row r="62" spans="2:36">
       <c r="D62" s="33" t="s">
         <v>205</v>
       </c>
@@ -12976,8 +14140,14 @@
       <c r="AB62" s="32" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="63" spans="2:28">
+      <c r="AH62" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI62" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="2:36">
       <c r="D63" s="33" t="s">
         <v>151</v>
       </c>
@@ -12993,8 +14163,14 @@
       <c r="AB63" s="32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="64" spans="2:28">
+      <c r="AH63" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI63" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="2:36">
       <c r="D64" s="33" t="s">
         <v>152</v>
       </c>
@@ -13010,8 +14186,17 @@
       <c r="AB64" s="32" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="2:28">
+      <c r="AH64" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI64" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ64" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:37">
       <c r="D65" s="33" t="s">
         <v>154</v>
       </c>
@@ -13027,8 +14212,14 @@
       <c r="AB65" s="32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="66" spans="2:28">
+      <c r="AH65" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI65" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="2:37">
       <c r="B66" t="s">
         <v>261</v>
       </c>
@@ -13047,8 +14238,17 @@
       <c r="AB66" s="32" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="2:28">
+      <c r="AH66" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI66" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ66" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="2:37">
       <c r="D67" s="33" t="s">
         <v>157</v>
       </c>
@@ -13067,8 +14267,14 @@
       <c r="AB67" s="32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="68" spans="2:28">
+      <c r="AH67" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI67" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="2:37">
       <c r="D68" s="33" t="s">
         <v>159</v>
       </c>
@@ -13087,8 +14293,17 @@
       <c r="AB68" s="32" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="69" spans="2:28">
+      <c r="AH68" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI68" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AJ68" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="2:37">
       <c r="D69" s="33" t="s">
         <v>161</v>
       </c>
@@ -13107,8 +14322,17 @@
       <c r="AB69" s="32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="70" spans="2:28">
+      <c r="AH69" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>389</v>
+      </c>
+      <c r="AJ69" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="2:37">
       <c r="D70" s="33" t="s">
         <v>163</v>
       </c>
@@ -13124,8 +14348,14 @@
       <c r="AB70" s="32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="71" spans="2:28">
+      <c r="AH70" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI70" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="2:37">
       <c r="D71" s="33" t="s">
         <v>165</v>
       </c>
@@ -13141,8 +14371,17 @@
       <c r="AB71" s="32" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="72" spans="2:28">
+      <c r="AH71" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI71" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ71" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="2:37">
       <c r="D72" s="33" t="s">
         <v>167</v>
       </c>
@@ -13159,8 +14398,14 @@
       <c r="AB72" s="32" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="73" spans="2:28">
+      <c r="AH72" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI72" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="2:37">
       <c r="D73" s="33" t="s">
         <v>169</v>
       </c>
@@ -13177,8 +14422,17 @@
       <c r="AB73" s="32" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="74" spans="2:28">
+      <c r="AH73" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI73" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ73" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="2:37">
       <c r="D74" s="33" t="s">
         <v>171</v>
       </c>
@@ -13195,8 +14449,20 @@
       <c r="AB74" s="32" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="75" spans="2:28">
+      <c r="AH74" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI74" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ74" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK74" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="2:37">
       <c r="D75" s="33" t="s">
         <v>213</v>
       </c>
@@ -13213,8 +14479,17 @@
       <c r="AB75" s="32" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="76" spans="2:28">
+      <c r="AF75" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH75" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="AI75" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="2:37">
       <c r="D76" s="33" t="s">
         <v>111</v>
       </c>
@@ -13226,7 +14501,7 @@
       </c>
       <c r="Z76" s="32"/>
     </row>
-    <row r="77" spans="2:28">
+    <row r="77" spans="2:37">
       <c r="D77" s="33" t="s">
         <v>214</v>
       </c>
@@ -13247,9 +14522,11 @@
       <c r="X77" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="Z77" s="32"/>
-    </row>
-    <row r="78" spans="2:28">
+      <c r="Z77" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="78" spans="2:37">
       <c r="D78" s="33" t="s">
         <v>216</v>
       </c>
@@ -13261,7 +14538,7 @@
       </c>
       <c r="Z78" s="32"/>
     </row>
-    <row r="79" spans="2:28">
+    <row r="79" spans="2:37">
       <c r="D79" s="33" t="s">
         <v>217</v>
       </c>
@@ -13273,7 +14550,7 @@
       </c>
       <c r="Z79" s="32"/>
     </row>
-    <row r="80" spans="2:28">
+    <row r="80" spans="2:37">
       <c r="D80" s="33" t="s">
         <v>218</v>
       </c>
@@ -13285,7 +14562,7 @@
       </c>
       <c r="Z80" s="32"/>
     </row>
-    <row r="81" spans="2:28">
+    <row r="81" spans="2:37">
       <c r="B81" t="s">
         <v>262</v>
       </c>
@@ -13300,7 +14577,7 @@
       </c>
       <c r="Z81" s="32"/>
     </row>
-    <row r="82" spans="2:28">
+    <row r="82" spans="2:37">
       <c r="D82" s="33" t="s">
         <v>221</v>
       </c>
@@ -13319,8 +14596,14 @@
       <c r="AB82" s="32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="83" spans="2:28">
+      <c r="AH82" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI82" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="2:37">
       <c r="D83" s="33" t="s">
         <v>223</v>
       </c>
@@ -13331,7 +14614,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="2:28">
+    <row r="84" spans="2:37">
       <c r="D84" s="33" t="s">
         <v>224</v>
       </c>
@@ -13350,8 +14633,14 @@
       <c r="AB84" s="32" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="85" spans="2:28">
+      <c r="AH84" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI84" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="2:37">
       <c r="B85" t="s">
         <v>261</v>
       </c>
@@ -13365,7 +14654,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="2:28">
+    <row r="86" spans="2:37">
       <c r="D86" s="33" t="s">
         <v>227</v>
       </c>
@@ -13384,8 +14673,17 @@
       <c r="AB86" s="32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="87" spans="2:28">
+      <c r="AH86" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI86" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ86" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="2:37">
       <c r="D87" s="33" t="s">
         <v>229</v>
       </c>
@@ -13404,8 +14702,20 @@
       <c r="AB87" s="32" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="88" spans="2:28">
+      <c r="AH87" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI87" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ87" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK87" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="88" spans="2:37">
       <c r="D88" s="33" t="s">
         <v>231</v>
       </c>
@@ -13420,4 +14730,95 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F408175C-98F1-1E42-B8EF-908B7389C391}">
+  <dimension ref="G3:Q44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:17">
+      <c r="G3" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="7:17">
+      <c r="G4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="7:17">
+      <c r="Q5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17">
+      <c r="Q6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17">
+      <c r="Q7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="7:17">
+      <c r="Q8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10">
+      <c r="G38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10">
+      <c r="G40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10">
+      <c r="H42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10">
+      <c r="I43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10">
+      <c r="J44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5589929F-D061-3449-9231-526DDBB2B24C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41955019-2FD6-6E46-9D8F-0C4D40D46CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="1520" windowWidth="31380" windowHeight="18180" activeTab="8" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="4120" yWindow="960" windowWidth="31380" windowHeight="18180" activeTab="9" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="20190313" sheetId="7" r:id="rId7"/>
     <sheet name="20190316" sheetId="8" r:id="rId8"/>
     <sheet name="20190318" sheetId="9" r:id="rId9"/>
+    <sheet name="20190319" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="428">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2866,12 +2867,778 @@
     <t>VC=是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>需要直接放入辅臣的位置，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接忽视【的】和【和】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>subWhat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>subWhat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.parse(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>findNN(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sonNodeList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>switch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sTYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">parse太子( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sonNodeList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>20190319版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NLPwhat parse(NLPwhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NLPwhat findNp(NLPwhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Node </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sonNodeList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.parse(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NLPwhat findVp(NLPwhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NLPwhat findNN(NLPwhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, List&lt;Node&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sonNodeList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NLPwhat parseOther(NLPwhat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Node </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>nodeParam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(StringUtils.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>equals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sTYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>)) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.parse太子(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.set太子(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000C0"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>sVar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>最后这张图，是偶然间得到的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为具体代码我自己都没搞清楚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之所以没有当日传上来时，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2019/3/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3086,6 +3853,47 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7F0055"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3234,7 +4042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3365,6 +4173,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8161,13 +8978,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8205,13 +9022,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8249,13 +9066,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8293,13 +9110,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8337,13 +9154,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8400,13 +9217,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8463,13 +9280,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8526,13 +9343,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8589,13 +9406,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8652,13 +9469,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8715,13 +9532,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8778,13 +9595,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8828,13 +9645,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8878,13 +9695,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8928,13 +9745,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8980,13 +9797,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9032,13 +9849,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9076,6 +9893,843 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02B8AB1-C8AA-B848-9B53-FE7873013CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12280900" y="6286500"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>语言</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8129485-A8E1-5B4A-B2D5-C43C6B1AF5D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11417300" y="5511800"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>自然</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1BAFE3-D588-904F-9D11-F56F2724D551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12979400" y="6559550"/>
+          <a:ext cx="1866900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{597279AD-54F7-0049-AA77-D0D0009DCE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11976100" y="6032500"/>
+          <a:ext cx="381000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49DC46D0-5DA2-5445-87A9-279A5992EF2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="6311900"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E177A6-98A1-F347-9CC2-6187B15531FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="7658100"/>
+          <a:ext cx="1079500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>太子</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工具</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EE7DAB-6089-4B44-B382-E455F4D47FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14871700" y="8470900"/>
+          <a:ext cx="1104900" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>辅臣</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>思维</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>辅臣</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>交流</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C3C86-E36A-404C-ACDA-A438F219D69D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16522700" y="8458200"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>人类</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="圆角矩形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E75864-5B0A-F34E-BA07-339FCADCF274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16522700" y="9169400"/>
+          <a:ext cx="698500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>人类</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直线连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3D393C-F335-0B4F-8688-8F0836D4254B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15811500" y="8743950"/>
+          <a:ext cx="711200" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直线连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8170FB-C3B4-8F49-AFBB-02AB5F1E9B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15824200" y="9309100"/>
+          <a:ext cx="698500" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2BD9AF-0510-8046-87C9-1C39E1648D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="1193800"/>
+          <a:ext cx="3225800" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDFB8F1-43C1-A744-9F52-EF3E27E5BB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="825500"/>
+          <a:ext cx="3860800" cy="6743700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C351DE-0F2B-E44B-B205-AA2D4A6ECD4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="1193800"/>
+          <a:ext cx="2552700" cy="2844800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9498,6 +11152,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA55775-29FD-5443-96C9-7E0F9DEEA873}">
+  <dimension ref="L3:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="13:14" ht="28">
+      <c r="M3" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="22" spans="12:13">
+      <c r="L22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="12:13">
+      <c r="L23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13">
+      <c r="L24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="12:13">
+      <c r="L25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="12:13">
+      <c r="M27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42465A32-07A8-A441-B3B4-5097F64B2652}">
   <dimension ref="B2:U76"/>
@@ -12980,7 +14680,7 @@
   <dimension ref="B2:AK88"/>
   <sheetViews>
     <sheetView topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+      <selection activeCell="AD2" sqref="AD2:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14734,10 +16434,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F408175C-98F1-1E42-B8EF-908B7389C391}">
-  <dimension ref="G3:Q44"/>
+  <dimension ref="B3:AG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14745,76 +16445,723 @@
     <col min="2" max="2" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:17">
-      <c r="G3" t="s">
+    <row r="3" spans="7:17" ht="28">
+      <c r="P3" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="6" spans="7:17">
+      <c r="G6" t="s">
         <v>393</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q6" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="7:17">
-      <c r="G4" t="s">
+    <row r="7" spans="7:17">
+      <c r="G7" t="s">
         <v>392</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q7" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="7:17">
-      <c r="Q5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="6" spans="7:17">
-      <c r="Q6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="7:17">
-      <c r="Q7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="7:17">
       <c r="Q8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17">
+      <c r="Q9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17">
+      <c r="Q10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="7:17">
+      <c r="Q11" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" t="s">
+    <row r="22" spans="7:27">
+      <c r="G22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
+    <row r="23" spans="7:27">
+      <c r="G23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="7:10">
-      <c r="G38" t="s">
+    <row r="25" spans="7:27">
+      <c r="X25" s="44"/>
+    </row>
+    <row r="30" spans="7:27">
+      <c r="Y30" s="44"/>
+    </row>
+    <row r="31" spans="7:27">
+      <c r="Z31" s="44"/>
+    </row>
+    <row r="32" spans="7:27">
+      <c r="AA32" s="44"/>
+    </row>
+    <row r="35" spans="7:27">
+      <c r="Y35" s="44"/>
+    </row>
+    <row r="38" spans="7:27">
+      <c r="Z38" s="44"/>
+    </row>
+    <row r="41" spans="7:27">
+      <c r="G41" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="7:10">
-      <c r="G40" t="s">
+    <row r="43" spans="7:27">
+      <c r="G43" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="7:10">
-      <c r="H42" t="s">
+    <row r="45" spans="7:27">
+      <c r="H45" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="43" spans="7:10">
-      <c r="I43" t="s">
+      <c r="Y45" s="44"/>
+    </row>
+    <row r="46" spans="7:27">
+      <c r="I46" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="44" spans="7:10">
-      <c r="J44" t="s">
+      <c r="Z46" s="44"/>
+    </row>
+    <row r="47" spans="7:27">
+      <c r="J47" t="s">
         <v>194</v>
       </c>
+    </row>
+    <row r="48" spans="7:27">
+      <c r="AA48" s="45"/>
+    </row>
+    <row r="50" spans="27:33">
+      <c r="AA50" s="44"/>
+    </row>
+    <row r="51" spans="27:33">
+      <c r="AB51" s="44"/>
+    </row>
+    <row r="52" spans="27:33">
+      <c r="AC52" s="33"/>
+    </row>
+    <row r="54" spans="27:33">
+      <c r="AD54" s="33"/>
+    </row>
+    <row r="56" spans="27:33">
+      <c r="AE56" s="44"/>
+    </row>
+    <row r="58" spans="27:33">
+      <c r="AF58" s="44"/>
+    </row>
+    <row r="60" spans="27:33">
+      <c r="AG60" s="44"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="K65" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="K66" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="46"/>
+      <c r="C80" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" s="44"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="46"/>
+      <c r="C85" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="46"/>
+      <c r="C95" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="G101" s="44"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="J106" s="44"/>
+      <c r="K106" s="44"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="44"/>
+      <c r="N106" s="46"/>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="K108" s="44"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+    </row>
+    <row r="109" spans="2:14">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+    </row>
+    <row r="110" spans="2:14">
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
+      <c r="N110" s="46"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41955019-2FD6-6E46-9D8F-0C4D40D46CCC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB98B8-79EA-814F-8CA5-E7D7E32DF734}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="960" windowWidth="31380" windowHeight="18180" activeTab="9" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="26900" windowHeight="18180" activeTab="10" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="20190316" sheetId="8" r:id="rId8"/>
     <sheet name="20190318" sheetId="9" r:id="rId9"/>
     <sheet name="20190319" sheetId="10" r:id="rId10"/>
+    <sheet name="20190324" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="450">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1517,7 +1518,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000003</t>
     </r>
@@ -1544,7 +1544,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000005</t>
     </r>
@@ -1571,7 +1570,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000005</t>
     </r>
@@ -1598,7 +1596,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000006</t>
     </r>
@@ -1624,7 +1621,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000001</t>
     </r>
@@ -1634,7 +1630,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000013</t>
     </r>
@@ -1649,7 +1644,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000003</t>
     </r>
@@ -1659,7 +1653,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000003</t>
     </r>
@@ -1675,7 +1668,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000010</t>
     </r>
@@ -2150,7 +2142,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000004</t>
     </r>
@@ -2204,7 +2195,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000050000000010</t>
     </r>
@@ -2541,7 +2531,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000013</t>
     </r>
@@ -2573,7 +2562,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000003</t>
     </r>
@@ -2586,7 +2574,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000002</t>
     </r>
@@ -2607,7 +2594,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000007</t>
     </r>
@@ -2623,7 +2609,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000005</t>
     </r>
@@ -2636,7 +2621,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000004</t>
     </r>
@@ -2657,7 +2641,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000006</t>
     </r>
@@ -2697,7 +2680,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>00000000060000000010</t>
     </r>
@@ -3633,12 +3615,86 @@
     <t xml:space="preserve">   2019/3/20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>会把所有东西在里面弄干净再出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视作新的句子处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是处理第一个CC之后的部分</t>
+  </si>
+  <si>
+    <t>目的是处理第一个CC之前的部分</t>
+  </si>
+  <si>
+    <t>取得子集中CC的位置</t>
+  </si>
+  <si>
+    <t>会在node的子项中找NP的项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会在node的子项中找VP的项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会用NLPverb来处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果CC为【与】，可以考虑共享辅臣</t>
+  </si>
+  <si>
+    <t>20190324版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是取得子集中NN节点的个数</t>
+  </si>
+  <si>
+    <t>如果只有一个即为【太子】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注，CC就是连接助词【与】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是针对NN NN这样的作出变形处理</t>
+  </si>
+  <si>
+    <t>* 就是两个并列的NN 也要分出一个主次。</t>
+  </si>
+  <si>
+    <t>* 主为太子</t>
+  </si>
+  <si>
+    <t>* 次为辅臣</t>
+  </si>
+  <si>
+    <t>*   例 人类 交流</t>
+  </si>
+  <si>
+    <t>*      NN0  NN1</t>
+  </si>
+  <si>
+    <t>*   NN0 是修饰 NN1的</t>
+  </si>
+  <si>
+    <t>*   所以 NN0 是辅臣</t>
+  </si>
+  <si>
+    <t>*   所以 NN1 是太子</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3802,17 +3858,9 @@
       <family val="2"/>
     </font>
     <font>
-      <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <strike/>
@@ -3891,6 +3939,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F5FBF"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -4042,7 +4108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4157,10 +4223,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4175,13 +4241,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10735,6 +10807,1949 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E473777-1362-0345-9213-BB1E445D6F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625600" y="38100"/>
+          <a:ext cx="2413000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D1A776-AF6B-7D4A-B410-9F12AFABA959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3822700" y="3733800"/>
+          <a:ext cx="2451100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parseOther</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B90840-CEC5-2D44-9FF2-93F47C9BE5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4762500"/>
+          <a:ext cx="2413000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD6D5C9-FFCD-4A47-ACA6-C45C53DD8035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3568700" y="1143000"/>
+          <a:ext cx="2451100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>findNp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8B2642-55F9-2446-B375-CCDCEF7516E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5346700" y="2070100"/>
+          <a:ext cx="2413000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD882909-179E-E04D-AF23-61D08815E40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="5651500"/>
+          <a:ext cx="2413000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>findNN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55F08F9-33A7-B94F-B4A7-248EE136C5FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7378700" y="6743700"/>
+          <a:ext cx="3378200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getCountOfNN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921FF0D9-93EF-844A-876B-0049417EE176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="7632700"/>
+          <a:ext cx="3378200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>太子</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0ADECA2-81FD-1A47-A105-5B61736D57CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="8521700"/>
+          <a:ext cx="3378200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>getLocCC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8310E30C-6BC0-E647-8ADD-FCCC00B4734A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="9436100"/>
+          <a:ext cx="3378200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>beforeCC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B6B315-F1F2-1146-A1BA-24C998763607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7442200" y="10325100"/>
+          <a:ext cx="3378200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>afterCC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="肘形连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBC74AA-4F58-D440-A5D5-5E9376F7D8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6708775" y="6435725"/>
+          <a:ext cx="730250" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="肘形连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0ACA74-E1CA-7943-A053-86A0C9F03815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6270625" y="6873875"/>
+          <a:ext cx="1619250" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="肘形连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C917888-59C4-A644-BADC-5859C3750D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5838825" y="7305675"/>
+          <a:ext cx="2508250" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="肘形连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC6B0D6-839E-254B-B684-A72E044A2971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5387975" y="7756525"/>
+          <a:ext cx="3422650" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510921</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>190427</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="肘形连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DA887B-E963-AD45-B014-B012D77AF648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8967770" y="13946242"/>
+          <a:ext cx="931699" cy="460120"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2344880-1B22-3149-8F96-AF9DD135624F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4991100" y="4591050"/>
+          <a:ext cx="590550" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="肘形连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF47644-CF29-524C-B411-93DE61E2062B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4565650" y="5016500"/>
+          <a:ext cx="1479550" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353483</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="肘形连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4313865D-5185-B740-938F-5524F9215357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2823633" y="781050"/>
+          <a:ext cx="781050" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072399E3-6AA8-0C41-B3F2-7B0C752C7611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="3048000"/>
+          <a:ext cx="2451100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>findVp</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61689D39-BF02-4245-BB38-1A8B6D6F53A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="4038600"/>
+          <a:ext cx="2413000" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NLPverb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>668865</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="肘形连接符 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B202C639-B260-6D46-A8EB-88896B6C3B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4850341" y="1910291"/>
+          <a:ext cx="488950" cy="554567"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353483</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="肘形连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D71B465-EF1A-BC45-A44B-8EF66E4383FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1877483" y="1727200"/>
+          <a:ext cx="2686050" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353483</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="肘形连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14BA3302-BD96-8C4C-AE32-C7E514BDB008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="944033" y="2660650"/>
+          <a:ext cx="4794250" cy="996950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>681565</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="肘形连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E355AE62-B28E-A445-9115-314F1D227106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4856691" y="3821641"/>
+          <a:ext cx="552450" cy="605367"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>671494</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>29196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>382350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F58AC68-5D33-EF46-83B6-389BB4597BA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2335632" y="17546437"/>
+          <a:ext cx="2207063" cy="2680594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510920</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>587121</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="圆角矩形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C76B39-3901-C24B-8103-80D836A6C1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9663679" y="14277866"/>
+          <a:ext cx="3404476" cy="728571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shareByCC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540116</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>45107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>616317</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>160574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20A2F1F-510F-9641-9072-DDECC225169D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9692875" y="15314302"/>
+          <a:ext cx="3404476" cy="728571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>parseNN_NN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540117</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="肘形连接符 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CC9D9D-6164-634C-B85C-EB34562B3378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8464150" y="14449862"/>
+          <a:ext cx="1968135" cy="489316"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -11156,7 +13171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA55775-29FD-5443-96C9-7E0F9DEEA873}">
   <dimension ref="L3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -11189,6 +13206,147 @@
     <row r="27" spans="12:13">
       <c r="M27" t="s">
         <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4272C-5907-F146-AF5E-B31AA6653FAE}">
+  <dimension ref="F2:Q87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="6:13" ht="28">
+      <c r="L2" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="7" spans="6:13">
+      <c r="F7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13">
+      <c r="J12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13">
+      <c r="K16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="K26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="11:15">
+      <c r="K37" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15">
+      <c r="K41" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="11:15">
+      <c r="O47" s="48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="14:17">
+      <c r="Q71" s="47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="14:17">
+      <c r="Q76" s="48" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="14:17">
+      <c r="N80" s="48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" s="48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" s="48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" s="48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" s="48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="48" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="48" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -14679,8 +16837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CDC155-EE5B-4740-839A-81B63AED10DB}">
   <dimension ref="B2:AK88"/>
   <sheetViews>
-    <sheetView topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AE2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/NLP入库方案20190227.xlsx
+++ b/doc/NLP入库方案20190227.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Desktop/THINGSdb/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDB98B8-79EA-814F-8CA5-E7D7E32DF734}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ADA257-597B-0A4B-A967-4EF4DC43CE77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="26900" windowHeight="18180" activeTab="10" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
+    <workbookView xWindow="8740" yWindow="900" windowWidth="22420" windowHeight="18180" firstSheet="4" activeTab="11" xr2:uid="{D2CC1A9E-2235-964B-9BF4-A16FF450B16A}"/>
   </bookViews>
   <sheets>
     <sheet name="20190219" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="20190318" sheetId="9" r:id="rId9"/>
     <sheet name="20190319" sheetId="10" r:id="rId10"/>
     <sheet name="20190324" sheetId="11" r:id="rId11"/>
+    <sheet name="20190325" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'20190227'!$A$1:$M$100</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="501">
   <si>
     <t>增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3689,12 +3690,203 @@
   <si>
     <t>*   所以 NN1 是太子</t>
   </si>
+  <si>
+    <t>│   │   │   └── 0000000010.data</t>
+  </si>
+  <si>
+    <t>│   │   │   └── 0000000011.data</t>
+  </si>
+  <si>
+    <t>│   │   └── 0000000011.data</t>
+  </si>
+  <si>
+    <t>    │   │   └── 0000000010.data</t>
+  </si>
+  <si>
+    <t>00000000050000000001</t>
+  </si>
+  <si>
+    <t>00000000050000000003</t>
+  </si>
+  <si>
+    <t>00000000050000000004</t>
+  </si>
+  <si>
+    <t>00000000050000000005</t>
+  </si>
+  <si>
+    <t>00000000050000000006</t>
+  </si>
+  <si>
+    <t>00000000050000000008</t>
+  </si>
+  <si>
+    <t>00000000050000000009</t>
+  </si>
+  <si>
+    <t>00000000050000000002</t>
+  </si>
+  <si>
+    <t>00000000050000000007</t>
+  </si>
+  <si>
+    <t>00000000060000000002</t>
+  </si>
+  <si>
+    <t>00000000060000000004</t>
+  </si>
+  <si>
+    <t>0000000006000000000300000000060000000005</t>
+  </si>
+  <si>
+    <t>00000000060000000007</t>
+  </si>
+  <si>
+    <t>00000000060000000008</t>
+  </si>
+  <si>
+    <t>00000000060000000001</t>
+  </si>
+  <si>
+    <t>00000000060000000010</t>
+  </si>
+  <si>
+    <t>00000000060000000009</t>
+  </si>
+  <si>
+    <t>00000000060000000006</t>
+  </si>
+  <si>
+    <t>0000000006000000000200000000050000000004</t>
+  </si>
+  <si>
+    <t>0000000006000000000400000000050000000005</t>
+  </si>
+  <si>
+    <t>000000000600000000030000000006000000000500000000050000000006</t>
+  </si>
+  <si>
+    <t>0000000006000000000700000000050000000008</t>
+  </si>
+  <si>
+    <t>0000000006000000000800000000050000000009</t>
+  </si>
+  <si>
+    <t>000000000600000000010000000005000000000200000000070000000002</t>
+  </si>
+  <si>
+    <t>00000000070000000002</t>
+  </si>
+  <si>
+    <t>00000000070000000001</t>
+  </si>
+  <si>
+    <t>0000000006000000000900000000050000000007</t>
+  </si>
+  <si>
+    <t>000000000600000000060000000005000000000700000000070000000001</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问，语言是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：语言是结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：语言是什么工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答：语言是工具，是结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：1、先由【怎样】找到【是】的【语言】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           2、再由这个【是】找到【工具】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           3、再由这个2的【是】，找到3的【是】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           4、最后得到2与3的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法：1、先由【怎样】找到【是】的【语言】和【工具】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实就是要找到这个【0606工具】才行，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           2、由【0606工具】找到【0504思维】【0505交流】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           3、分别追求【0504思维】【0505交流】各自的极致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这里就可以回答：语言是【思维】、【交流】的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后完成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言是【人类】【思维】、【人类】交流】的工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：什么语言是工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20190325版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项目日记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2019/3/25 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val=".PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【机器怎么回答用户的提问】</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3858,11 +4050,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线 (正文)"/>
-    </font>
-    <font>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
@@ -3958,6 +4145,32 @@
       <sz val="11"/>
       <color rgb="FF3F5FBF"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val=".PingFang SC"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4108,7 +4321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4223,10 +4436,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4241,19 +4454,31 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12750,6 +12975,1230 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1330960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直线箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC09973C-4571-0244-920B-5035C3E803B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4795520" y="6797040"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9E6309-F817-3744-A1E1-CE6DB8757446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805680" y="7010400"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091056A2-1B17-CB48-A23A-722C421420DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805680" y="7233920"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1330960</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E1F904-843E-B440-86A7-0A28A8A94791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4795520" y="7416800"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1330960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9E610E-971A-C54C-88F4-03957C1B9979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4795520" y="7630160"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1351280</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B797078A-ABD5-8841-9D0F-DD91CAC41E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4815840" y="7833360"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F57AD6-B0C8-6740-A784-B35D8176D263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805680" y="8442960"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA799670-DC0E-E042-990F-A0D6E77350C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805680" y="8666480"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1351280</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300AF369-E908-4449-9090-9C7E48C39CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4815840" y="9062720"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9198352-4EDB-3146-89CF-697C829BF070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4826000" y="9265920"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE8ECEB-8F88-CA4B-8527-683F8BC46AFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4826000" y="9458960"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595F57A1-47A2-1C43-AB4D-0AA678A14650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4836160" y="9672320"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724EDB84-62DD-C044-B229-78F46492E33B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4826000" y="9865360"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB57667-820B-FE42-ACBC-91D573C35E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4826000" y="10078720"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D37635-0CFC-1649-B170-85624DC8CD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4836160" y="10271760"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D604CB3-0BA9-254C-BCA4-B69D128942D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4836160" y="10474960"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C856EA51-EF96-2A4F-A5D2-5F3C948A2E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4836160" y="10678160"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1381760</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9D8149-E1E1-2B4F-91D3-EC6E2925A818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4846320" y="10861040"/>
+          <a:ext cx="6268720" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1386840</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C15BBE-02C1-5243-BE64-90B8FA85CD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4856480" y="11079480"/>
+          <a:ext cx="6283960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1336040</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75DDD97-2B10-614A-B213-40DB4B4EF805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4805680" y="12514580"/>
+          <a:ext cx="6283960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC86E99-5E11-8B42-848E-DE23DDBCA2A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4831080" y="12908280"/>
+          <a:ext cx="6283960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A05C4D-C373-2A4B-AA27-709ACC2E68B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4831080" y="13543280"/>
+          <a:ext cx="6283960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3B75FE-9897-EF4D-807B-B81240DA08F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4818380" y="13314680"/>
+          <a:ext cx="6283960" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -13219,7 +14668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4272C-5907-F146-AF5E-B31AA6653FAE}">
   <dimension ref="F2:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -13347,6 +14798,793 @@
     <row r="87" spans="14:14">
       <c r="N87" s="48" t="s">
         <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0406DD13-E726-AF48-8C5D-203DC00F6B3F}">
+  <dimension ref="B2:O85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="50"/>
+    <col min="4" max="4" width="19.6640625" style="50" customWidth="1"/>
+    <col min="5" max="11" width="10.83203125" style="50"/>
+    <col min="12" max="12" width="19.1640625" style="50" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="28">
+      <c r="B2" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="N2" s="34"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="51"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="51"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="51"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="G15" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="G16" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="G17" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="G18" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="G19" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="51"/>
+      <c r="G20" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="G21" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="G22" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="G23" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="49" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="G24" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="51"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="G26" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="G27" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="M27" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="51"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="51"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="N36" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="M38" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="M40" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="M42" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M46" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M48" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="M50" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" s="32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="B52" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="M52" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="M54" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="N54" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="O54" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="B58" s="49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" s="49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="M62" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="M64" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="M66" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="N66" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="M67" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="N67" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="O67" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="C71" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="C72" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="C73" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="E74" s="50" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="C77" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="F78" s="50" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="E79" s="50" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="F80" s="50" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="E81" s="50" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="F82" s="50" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="G83" s="50" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7">
+      <c r="C85" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E85" s="50" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -14788,7 +17026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B84FA-5CE6-DB48-AB54-C4E57F0B93E1}">
   <dimension ref="B2:T99"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="103" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:M24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -16837,8 +19077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CDC155-EE5B-4740-839A-81B63AED10DB}">
   <dimension ref="B2:AK88"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE33" sqref="AE33"/>
+    <sheetView topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
